--- a/base_data/dataExploration.xlsx
+++ b/base_data/dataExploration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Documents\MyDocuments_Vasco\NLU-Stanford\Project\ExperimentalProtocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\DeepLearning-JN\cs224u\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{890D6F43-DE7B-4B18-B848-DC1641A31E78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7887F978-EF76-49A8-AAA4-838ADDE0D601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="2" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="998">
   <si>
     <t>B-DATUM_VERBUECHERUNG</t>
   </si>
@@ -3019,6 +3019,12 @@
   </si>
   <si>
     <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>Total Distinct Words</t>
+  </si>
+  <si>
+    <t>Total Words</t>
   </si>
 </sst>
 </file>
@@ -3028,8 +3034,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3143,24 +3149,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3662,12 +3668,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -4320,10 +4326,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>978</v>
       </c>
     </row>
@@ -5098,7 +5104,7 @@
       <c r="G23">
         <v>22</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="18" t="s">
         <v>567</v>
       </c>
     </row>
@@ -5322,7 +5328,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>567</v>
       </c>
       <c r="K34" t="s">
@@ -5552,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="R43" s="24" t="s">
+      <c r="R43" s="25" t="s">
         <v>979</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="T43" s="21">
+      <c r="T43" s="20">
         <f>+U18</f>
         <v>92.868181818181824</v>
       </c>
@@ -5582,11 +5588,11 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="R44" s="24"/>
+      <c r="R44" s="25"/>
       <c r="S44" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="T44" s="21">
+      <c r="T44" s="20">
         <f>+N18*100</f>
         <v>92.800000000000011</v>
       </c>
@@ -5608,11 +5614,11 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="25"/>
       <c r="S45" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="T45" s="21">
+      <c r="T45" s="20">
         <f>+F29*100</f>
         <v>86.17647058823529</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="T46" s="20"/>
+      <c r="T46" s="19"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -5655,13 +5661,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="R47" s="24" t="s">
+      <c r="R47" s="25" t="s">
         <v>983</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="T47" s="22" t="s">
+      <c r="T47" s="21" t="s">
         <v>984</v>
       </c>
     </row>
@@ -5683,11 +5689,11 @@
         <v>12</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="R48" s="24"/>
+      <c r="R48" s="25"/>
       <c r="S48" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="T48" s="21">
+      <c r="T48" s="20">
         <f>+N39*100</f>
         <v>91.9</v>
       </c>
@@ -5711,11 +5717,11 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="R49" s="24"/>
+      <c r="R49" s="25"/>
       <c r="S49" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="T49" s="21">
+      <c r="T49" s="20">
         <f>+F63*100</f>
         <v>89.474999999999994</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>34</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="R50" s="23"/>
+      <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -5937,7 +5943,7 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F63" s="18">
+      <c r="F63" s="17">
         <f>+AVERAGE(F38:F42,F44,F46,F48:F51,F53:F57)</f>
         <v>0.89474999999999993</v>
       </c>
@@ -6020,10 +6026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8352F6E5-FEB5-43EC-88EC-4258BDB71AAB}">
-  <dimension ref="B1:J114"/>
+  <dimension ref="B1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6036,7 +6042,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>995</v>
       </c>
     </row>
@@ -6096,50 +6102,48 @@
         <v>1.4201091192517501</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1.9629629629629599</v>
-      </c>
-      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="20">
-        <v>2.0747663551401798</v>
+        <v>41</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1.9629629629629599</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -6148,33 +6152,34 @@
         <v>41</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2.0747663551401798</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="20">
-        <v>1.03</v>
+        <v>46</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -6182,16 +6187,16 @@
         <v>42</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1.3680981595092001</v>
+        <v>45</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1.03</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -6199,49 +6204,49 @@
         <v>42</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1.7037037037036999</v>
+        <v>47</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1.3680981595092001</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1.7037037037036999</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="20">
+        <v>49</v>
+      </c>
+      <c r="H20" s="19">
         <v>1</v>
       </c>
     </row>
@@ -6250,33 +6255,33 @@
         <v>45</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1.61165048543689</v>
+        <v>48</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1.61165048543689</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -6284,16 +6289,16 @@
         <v>47</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="20">
-        <v>2.11320754716981</v>
+        <v>44</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -6301,10 +6306,16 @@
         <v>47</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="19">
+        <v>2.11320754716981</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -6312,10 +6323,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -6323,21 +6334,21 @@
         <v>47</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -6345,10 +6356,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -6356,10 +6367,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -6367,10 +6378,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -6378,43 +6389,43 @@
         <v>40</v>
       </c>
       <c r="C31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
-        <v>238</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -6422,10 +6433,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -6433,10 +6444,10 @@
         <v>50</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -6444,32 +6455,32 @@
         <v>50</v>
       </c>
       <c r="C37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -6477,10 +6488,10 @@
         <v>43</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -6488,10 +6499,10 @@
         <v>43</v>
       </c>
       <c r="C41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -6499,10 +6510,10 @@
         <v>43</v>
       </c>
       <c r="C42" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -6510,10 +6521,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -6521,10 +6532,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -6532,7 +6543,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -6543,219 +6554,230 @@
         <v>43</v>
       </c>
       <c r="C46" s="3">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="3">
         <v>8</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
-    </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
+      <c r="B48" s="19"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
+      <c r="B49" s="19"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
+      <c r="B50" s="19"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
+      <c r="B51" s="19"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
+      <c r="B52" s="19"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
+      <c r="B53" s="19"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
+      <c r="B54" s="19"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
+      <c r="B57" s="19"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
+      <c r="B58" s="19"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="20"/>
+      <c r="B67" s="19"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="20"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="20"/>
+      <c r="B69" s="19"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="20"/>
+      <c r="B70" s="19"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="20"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="20"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="20"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="20"/>
+      <c r="B75" s="19"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="20"/>
+      <c r="B76" s="19"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="20"/>
+      <c r="B77" s="19"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="20"/>
+      <c r="B78" s="19"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="20"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="20"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="20"/>
+      <c r="B82" s="19"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="20"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="20"/>
+      <c r="B84" s="19"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="20"/>
+      <c r="B85" s="19"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="20"/>
+      <c r="B86" s="19"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="20"/>
+      <c r="B87" s="19"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="20"/>
+      <c r="B88" s="19"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="20"/>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="20"/>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="20"/>
+      <c r="B91" s="19"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="20"/>
+      <c r="B92" s="19"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="20"/>
+      <c r="B93" s="19"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="20"/>
+      <c r="B94" s="19"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="20"/>
+      <c r="B95" s="19"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="20"/>
+      <c r="B96" s="19"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="20"/>
+      <c r="B97" s="19"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="20"/>
+      <c r="B98" s="19"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="20"/>
+      <c r="B100" s="19"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="20"/>
+      <c r="B101" s="19"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="20"/>
+      <c r="B102" s="19"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="20"/>
+      <c r="B104" s="19"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="20"/>
+      <c r="B105" s="19"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="20"/>
+      <c r="B106" s="19"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="20"/>
+      <c r="B107" s="19"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="20"/>
+      <c r="B108" s="19"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="20"/>
+      <c r="B110" s="19"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="20"/>
+      <c r="B111" s="19"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="20"/>
+      <c r="B112" s="19"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="20"/>
+      <c r="B113" s="19"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="20"/>
+      <c r="B114" s="19"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="19"/>
     </row>
   </sheetData>
-  <sortState ref="G13:H23">
-    <sortCondition ref="G13"/>
+  <sortState ref="G14:H24">
+    <sortCondition ref="G14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6909,7 +6931,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>975</v>
       </c>
     </row>
@@ -8267,7 +8289,7 @@
       </c>
     </row>
     <row r="25" spans="1:180" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>571</v>
       </c>
     </row>

--- a/base_data/dataExploration.xlsx
+++ b/base_data/dataExploration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\DeepLearning-JN\cs224u\base_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Documents\MyDocuments_Vasco\NLU-Stanford\Project\ExperimentalProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7887F978-EF76-49A8-AAA4-838ADDE0D601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0BA4AD-80B6-4D41-B136-F44ECC4963B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="2" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="1" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
   </bookViews>
   <sheets>
     <sheet name="CRF-1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="998">
   <si>
     <t>B-DATUM_VERBUECHERUNG</t>
   </si>
@@ -3144,7 +3144,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3168,6 +3167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3668,12 +3668,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -4313,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426DD03B-DC09-49BD-81FB-9120E076C472}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,10 +4326,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>978</v>
       </c>
     </row>
@@ -4582,33 +4582,33 @@
         <v>17</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="14">
         <v>0.81799999999999995</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="14">
         <v>0.78300000000000003</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="14">
         <v>0.8</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="14">
         <v>23</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="14" t="s">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="14">
         <v>83.87</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="14">
         <v>70.27</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="14">
         <v>76.47</v>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       <c r="G23">
         <v>22</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="17" t="s">
         <v>567</v>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>567</v>
       </c>
       <c r="K34" t="s">
@@ -5558,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="R43" s="25" t="s">
+      <c r="R43" s="24" t="s">
         <v>979</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="T43" s="20">
+      <c r="T43" s="19">
         <f>+U18</f>
         <v>92.868181818181824</v>
       </c>
@@ -5588,11 +5588,11 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="R44" s="25"/>
+      <c r="R44" s="24"/>
       <c r="S44" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="T44" s="20">
+      <c r="T44" s="19">
         <f>+N18*100</f>
         <v>92.800000000000011</v>
       </c>
@@ -5614,11 +5614,11 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="R45" s="25"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="T45" s="20">
+      <c r="T45" s="19">
         <f>+F29*100</f>
         <v>86.17647058823529</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="T46" s="19"/>
+      <c r="T46" s="18"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -5661,13 +5661,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="R47" s="25" t="s">
+      <c r="R47" s="24" t="s">
         <v>983</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="T47" s="21" t="s">
+      <c r="T47" s="20" t="s">
         <v>984</v>
       </c>
     </row>
@@ -5689,11 +5689,11 @@
         <v>12</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="R48" s="25"/>
+      <c r="R48" s="24"/>
       <c r="S48" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="T48" s="20">
+      <c r="T48" s="19">
         <f>+N39*100</f>
         <v>91.9</v>
       </c>
@@ -5717,11 +5717,11 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="R49" s="25"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="T49" s="20">
+      <c r="T49" s="19">
         <f>+F63*100</f>
         <v>89.474999999999994</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>34</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="R50" s="22"/>
+      <c r="R50" s="21"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -5943,7 +5943,7 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <f>+AVERAGE(F38:F42,F44,F46,F48:F51,F53:F57)</f>
         <v>0.89474999999999993</v>
       </c>
@@ -6028,8 +6028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8352F6E5-FEB5-43EC-88EC-4258BDB71AAB}">
   <dimension ref="B1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6042,7 +6042,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>995</v>
       </c>
     </row>
@@ -6119,13 +6119,13 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>992</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>993</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>994</v>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>1.9629629629629599</v>
       </c>
       <c r="J14" s="2"/>
@@ -6160,7 +6160,7 @@
       <c r="G15" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>2.0747663551401798</v>
       </c>
       <c r="J15" s="2"/>
@@ -6178,7 +6178,7 @@
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
       <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>1.03</v>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>1.3680981595092001</v>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       <c r="G19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>1.7037037037036999</v>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       <c r="G21" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
       <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>1.61165048543689</v>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       <c r="G23" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       <c r="G24" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>2.11320754716981</v>
       </c>
     </row>
@@ -6572,208 +6572,208 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
+      <c r="B49" s="18"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
+      <c r="B50" s="18"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
+      <c r="B51" s="18"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
+      <c r="B52" s="18"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
+      <c r="B53" s="18"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
+      <c r="B54" s="18"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
+      <c r="B55" s="18"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
+      <c r="B56" s="18"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
+      <c r="B57" s="18"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
+      <c r="B58" s="18"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
+      <c r="B59" s="18"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
+      <c r="B60" s="18"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
+      <c r="B61" s="18"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
+      <c r="B63" s="18"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
+      <c r="B64" s="18"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
+      <c r="B65" s="18"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="19"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
+      <c r="B70" s="18"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
+      <c r="B71" s="18"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
+      <c r="B72" s="18"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
+      <c r="B74" s="18"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
+      <c r="B75" s="18"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
+      <c r="B76" s="18"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="19"/>
+      <c r="B77" s="18"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="19"/>
+      <c r="B78" s="18"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
+      <c r="B79" s="18"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
+      <c r="B80" s="18"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="19"/>
+      <c r="B81" s="18"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="19"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="19"/>
+      <c r="B83" s="18"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
+      <c r="B84" s="18"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="19"/>
+      <c r="B85" s="18"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="19"/>
+      <c r="B86" s="18"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="19"/>
+      <c r="B87" s="18"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="19"/>
+      <c r="B88" s="18"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="19"/>
+      <c r="B89" s="18"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="19"/>
+      <c r="B90" s="18"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
+      <c r="B91" s="18"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="19"/>
+      <c r="B92" s="18"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="19"/>
+      <c r="B93" s="18"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="19"/>
+      <c r="B94" s="18"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
+      <c r="B95" s="18"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="19"/>
+      <c r="B96" s="18"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="19"/>
+      <c r="B97" s="18"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
+      <c r="B98" s="18"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
+      <c r="B99" s="18"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
+      <c r="B100" s="18"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="19"/>
+      <c r="B101" s="18"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
+      <c r="B102" s="18"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="19"/>
+      <c r="B103" s="18"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
+      <c r="B104" s="18"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="19"/>
+      <c r="B105" s="18"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
+      <c r="B106" s="18"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="19"/>
+      <c r="B107" s="18"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
+      <c r="B108" s="18"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="19"/>
+      <c r="B109" s="18"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
+      <c r="B110" s="18"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="19"/>
+      <c r="B111" s="18"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="19"/>
+      <c r="B112" s="18"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="19"/>
+      <c r="B113" s="18"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="19"/>
+      <c r="B114" s="18"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
+      <c r="B115" s="18"/>
     </row>
   </sheetData>
   <sortState ref="G14:H24">
@@ -6931,7 +6931,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>975</v>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
     </row>
     <row r="25" spans="1:180" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>571</v>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>547</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -11245,7 +11245,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>547</v>
       </c>
       <c r="C17" t="s">
@@ -11507,14 +11507,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
         <v>138</v>
       </c>
     </row>

--- a/base_data/dataExploration.xlsx
+++ b/base_data/dataExploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\DeepLearning-JN\cs224u\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC859B3-A1E6-406E-ACCC-EABE2B8F0F5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFEB626-4AE5-444F-992A-835F186FB7EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="2" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="1" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
   </bookViews>
   <sheets>
     <sheet name="CRF-1" sheetId="1" r:id="rId1"/>
@@ -6024,15 +6024,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6534,12 +6534,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
@@ -7177,10 +7177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426DD03B-DC09-49BD-81FB-9120E076C472}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="S9" s="14">
@@ -7951,6 +7951,16 @@
       <c r="G22">
         <v>15</v>
       </c>
+      <c r="R22" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="T22" s="19">
+        <f>+U18</f>
+        <v>92.868181818181824</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7973,11 +7983,27 @@
       <c r="I23" s="17" t="s">
         <v>567</v>
       </c>
+      <c r="R23" s="26"/>
+      <c r="S23" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="T23" s="19">
+        <f>+N18*100</f>
+        <v>92.800000000000011</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="K24" s="2"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="T24" s="19">
+        <f>+F29*100</f>
+        <v>86.17647058823529</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -8013,6 +8039,7 @@
       <c r="O25" t="s">
         <v>22</v>
       </c>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -8037,19 +8064,28 @@
         <v>41</v>
       </c>
       <c r="L26">
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0.96699999999999997</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>29</v>
       </c>
       <c r="P26" t="s">
         <v>570</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -8086,6 +8122,14 @@
       <c r="O27">
         <v>31</v>
       </c>
+      <c r="R27" s="26"/>
+      <c r="S27" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="T27" s="19">
+        <f>+N39*100</f>
+        <v>89.9</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
@@ -8102,6 +8146,14 @@
       </c>
       <c r="O28">
         <v>17</v>
+      </c>
+      <c r="R28" s="26"/>
+      <c r="S28" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="T28" s="19">
+        <f>+F63*100</f>
+        <v>87.793749999999989</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -8147,13 +8199,13 @@
         <v>40</v>
       </c>
       <c r="L31">
-        <v>0.66700000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="M31">
         <v>0.90900000000000003</v>
       </c>
       <c r="N31">
-        <v>0.76900000000000002</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="O31">
         <v>22</v>
@@ -8176,7 +8228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>48</v>
       </c>
@@ -8193,7 +8245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>567</v>
       </c>
@@ -8213,7 +8265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>44</v>
       </c>
@@ -8230,7 +8282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="D36" t="s">
         <v>33</v>
@@ -8248,23 +8300,23 @@
         <v>43</v>
       </c>
       <c r="L36">
-        <v>0.90900000000000003</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="M36">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
-        <v>0.76900000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="O36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
@@ -8287,19 +8339,19 @@
         <v>37</v>
       </c>
       <c r="L38">
-        <v>0.91</v>
+        <v>0.877</v>
       </c>
       <c r="M38">
-        <v>0.91</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="O38">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>1</v>
       </c>
@@ -8322,19 +8374,19 @@
         <v>37</v>
       </c>
       <c r="L39">
-        <v>0.92300000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="M39">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="N39" s="12">
-        <v>0.91900000000000004</v>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="N39">
+        <v>0.89900000000000002</v>
       </c>
       <c r="O39">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" t="s">
         <v>2</v>
@@ -8358,19 +8410,19 @@
         <v>37</v>
       </c>
       <c r="L40">
-        <v>0.91800000000000004</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="M40">
-        <v>0.91</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="N40">
-        <v>0.90900000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="O40">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" t="s">
         <v>3</v>
@@ -8388,7 +8440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" t="s">
         <v>4</v>
@@ -8406,7 +8458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>568</v>
@@ -8424,18 +8476,8 @@
         <v>0</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="R43" s="24" t="s">
-        <v>979</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="T43" s="19">
-        <f>+U18</f>
-        <v>92.868181818181824</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>5</v>
@@ -8454,16 +8496,8 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="T44" s="19">
-        <f>+N18*100</f>
-        <v>92.800000000000011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>6</v>
@@ -8480,16 +8514,8 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="R45" s="24"/>
-      <c r="S45" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="T45" s="19">
-        <f>+F29*100</f>
-        <v>86.17647058823529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>7</v>
@@ -8507,9 +8533,8 @@
         <v>22</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="T46" s="18"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>8</v>
@@ -8527,72 +8552,47 @@
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="R47" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="T47" s="20" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>0.64700000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="E48">
-        <v>0.91700000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F48">
-        <v>0.75900000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G48">
         <v>12</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="T48" s="19">
-        <f>+N39*100</f>
-        <v>91.9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49">
+        <v>0.75</v>
+      </c>
+      <c r="E49">
+        <v>0.6</v>
+      </c>
+      <c r="F49">
         <v>0.66700000000000004</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0.8</v>
       </c>
       <c r="G49">
         <v>10</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="T49" s="19">
-        <f>+F63*100</f>
-        <v>89.474999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" t="s">
         <v>11</v>
@@ -8612,7 +8612,7 @@
       <c r="J50" s="2"/>
       <c r="R50" s="21"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>13</v>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>569</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" t="s">
         <v>14</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" t="s">
         <v>15</v>
@@ -8686,10 +8686,10 @@
       <c r="G54">
         <v>5</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" t="s">
         <v>16</v>
@@ -8706,48 +8706,51 @@
       <c r="G55">
         <v>5</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E56">
         <v>0.6</v>
       </c>
       <c r="F56">
-        <v>0.72</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G56">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57">
-        <v>0.91700000000000004</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E57">
-        <v>0.73299999999999998</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F57">
-        <v>0.81499999999999995</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G57">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>36</v>
       </c>
@@ -8755,20 +8758,20 @@
         <v>37</v>
       </c>
       <c r="D59">
-        <v>0.89700000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="E59">
-        <v>0.90100000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F59">
-        <v>0.89900000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="G59">
         <v>233</v>
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>38</v>
       </c>
@@ -8776,19 +8779,20 @@
         <v>37</v>
       </c>
       <c r="D60">
-        <v>0.72</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E60">
-        <v>0.72299999999999998</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="F60">
-        <v>0.71599999999999997</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G60">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>39</v>
       </c>
@@ -8796,94 +8800,59 @@
         <v>37</v>
       </c>
       <c r="D61">
-        <v>0.92100000000000004</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="E61">
-        <v>0.90100000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F61">
-        <v>0.90400000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="G61">
         <v>233</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F63" s="16">
         <f>+AVERAGE(F38:F42,F44,F46,F48:F51,F53:F57)</f>
-        <v>0.89474999999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.87793749999999993</v>
+      </c>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="K44:O54">
-    <sortCondition ref="K44:K54"/>
+  <sortState ref="K55:O65">
+    <sortCondition ref="K55:K65"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="R26:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8894,7 +8863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8352F6E5-FEB5-43EC-88EC-4258BDB71AAB}">
   <dimension ref="B1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -8977,7 +8946,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>1949</v>
       </c>
       <c r="C11" s="3">
@@ -8985,7 +8954,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>1950</v>
       </c>
       <c r="C12" s="3">
@@ -12093,7 +12062,7 @@
         <v>1377</v>
       </c>
       <c r="C269" t="b">
-        <f>+ISNUMBER(B269)</f>
+        <f t="shared" ref="C269:C304" si="5">+ISNUMBER(B269)</f>
         <v>0</v>
       </c>
     </row>
@@ -12102,7 +12071,7 @@
         <v>1437</v>
       </c>
       <c r="C270" t="b">
-        <f>+ISNUMBER(B270)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12111,7 +12080,7 @@
         <v>1254</v>
       </c>
       <c r="C271" t="b">
-        <f>+ISNUMBER(B271)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12120,7 +12089,7 @@
         <v>1465</v>
       </c>
       <c r="C272" t="b">
-        <f>+ISNUMBER(B272)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12129,7 +12098,7 @@
         <v>1532</v>
       </c>
       <c r="C273" t="b">
-        <f>+ISNUMBER(B273)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12138,7 +12107,7 @@
         <v>1566</v>
       </c>
       <c r="C274" t="b">
-        <f>+ISNUMBER(B274)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12147,7 +12116,7 @@
         <v>1415</v>
       </c>
       <c r="C275" t="b">
-        <f>+ISNUMBER(B275)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12156,7 +12125,7 @@
         <v>1672</v>
       </c>
       <c r="C276" t="b">
-        <f>+ISNUMBER(B276)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12165,7 +12134,7 @@
         <v>1107</v>
       </c>
       <c r="C277" t="b">
-        <f>+ISNUMBER(B277)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12174,7 +12143,7 @@
         <v>1295</v>
       </c>
       <c r="C278" t="b">
-        <f>+ISNUMBER(B278)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12183,7 +12152,7 @@
         <v>1530</v>
       </c>
       <c r="C279" t="b">
-        <f>+ISNUMBER(B279)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12192,7 +12161,7 @@
         <v>1364</v>
       </c>
       <c r="C280" t="b">
-        <f>+ISNUMBER(B280)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12201,7 +12170,7 @@
         <v>1944</v>
       </c>
       <c r="C281" t="b">
-        <f>+ISNUMBER(B281)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12210,7 +12179,7 @@
         <v>1280</v>
       </c>
       <c r="C282" t="b">
-        <f>+ISNUMBER(B282)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12219,7 +12188,7 @@
         <v>1773</v>
       </c>
       <c r="C283" t="b">
-        <f>+ISNUMBER(B283)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12228,7 +12197,7 @@
         <v>1480</v>
       </c>
       <c r="C284" t="b">
-        <f>+ISNUMBER(B284)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12237,7 +12206,7 @@
         <v>1671</v>
       </c>
       <c r="C285" t="b">
-        <f>+ISNUMBER(B285)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12246,7 +12215,7 @@
         <v>1278</v>
       </c>
       <c r="C286" t="b">
-        <f>+ISNUMBER(B286)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12255,7 +12224,7 @@
         <v>1623</v>
       </c>
       <c r="C287" t="b">
-        <f>+ISNUMBER(B287)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12264,7 +12233,7 @@
         <v>1883</v>
       </c>
       <c r="C288" t="b">
-        <f>+ISNUMBER(B288)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12273,7 +12242,7 @@
         <v>1312</v>
       </c>
       <c r="C289" t="b">
-        <f>+ISNUMBER(B289)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12282,7 +12251,7 @@
         <v>1495</v>
       </c>
       <c r="C290" t="b">
-        <f>+ISNUMBER(B290)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12291,7 +12260,7 @@
         <v>1686</v>
       </c>
       <c r="C291" t="b">
-        <f>+ISNUMBER(B291)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12300,7 +12269,7 @@
         <v>1342</v>
       </c>
       <c r="C292" t="b">
-        <f>+ISNUMBER(B292)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12309,7 +12278,7 @@
         <v>1853</v>
       </c>
       <c r="C293" t="b">
-        <f>+ISNUMBER(B293)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12318,7 +12287,7 @@
         <v>1608</v>
       </c>
       <c r="C294" t="b">
-        <f>+ISNUMBER(B294)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12327,7 +12296,7 @@
         <v>1800</v>
       </c>
       <c r="C295" t="b">
-        <f>+ISNUMBER(B295)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12336,7 +12305,7 @@
         <v>1266</v>
       </c>
       <c r="C296" t="b">
-        <f>+ISNUMBER(B296)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12345,7 +12314,7 @@
         <v>1288</v>
       </c>
       <c r="C297" t="b">
-        <f>+ISNUMBER(B297)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12354,7 +12323,7 @@
         <v>1147</v>
       </c>
       <c r="C298" t="b">
-        <f>+ISNUMBER(B298)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12363,7 +12332,7 @@
         <v>1497</v>
       </c>
       <c r="C299" t="b">
-        <f>+ISNUMBER(B299)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12372,7 +12341,7 @@
         <v>1433</v>
       </c>
       <c r="C300" t="b">
-        <f>+ISNUMBER(B300)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12381,7 +12350,7 @@
         <v>1745</v>
       </c>
       <c r="C301" t="b">
-        <f>+ISNUMBER(B301)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12390,7 +12359,7 @@
         <v>1085</v>
       </c>
       <c r="C302" t="b">
-        <f>+ISNUMBER(B302)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12399,7 +12368,7 @@
         <v>1247</v>
       </c>
       <c r="C303" t="b">
-        <f>+ISNUMBER(B303)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12408,7 +12377,7 @@
         <v>1007</v>
       </c>
       <c r="C304" t="b">
-        <f>+ISNUMBER(B304)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12417,7 +12386,7 @@
         <v>1245</v>
       </c>
       <c r="C305" t="b">
-        <f t="shared" ref="C305:C368" si="5">+ISNUMBER(B305)</f>
+        <f t="shared" ref="C305:C368" si="6">+ISNUMBER(B305)</f>
         <v>0</v>
       </c>
     </row>
@@ -12426,7 +12395,7 @@
         <v>1542</v>
       </c>
       <c r="C306" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12435,7 +12404,7 @@
         <v>1166</v>
       </c>
       <c r="C307" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12444,7 +12413,7 @@
         <v>1440</v>
       </c>
       <c r="C308" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12453,7 +12422,7 @@
         <v>1668</v>
       </c>
       <c r="C309" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12462,7 +12431,7 @@
         <v>1304</v>
       </c>
       <c r="C310" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12471,7 +12440,7 @@
         <v>1877</v>
       </c>
       <c r="C311" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12480,7 +12449,7 @@
         <v>1114</v>
       </c>
       <c r="C312" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12489,7 +12458,7 @@
         <v>1420</v>
       </c>
       <c r="C313" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12498,7 +12467,7 @@
         <v>1108</v>
       </c>
       <c r="C314" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12507,7 +12476,7 @@
         <v>1559</v>
       </c>
       <c r="C315" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12516,7 +12485,7 @@
         <v>1441</v>
       </c>
       <c r="C316" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12525,7 +12494,7 @@
         <v>1322</v>
       </c>
       <c r="C317" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12534,7 +12503,7 @@
         <v>1817</v>
       </c>
       <c r="C318" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12543,7 +12512,7 @@
         <v>1468</v>
       </c>
       <c r="C319" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12552,7 +12521,7 @@
         <v>1036</v>
       </c>
       <c r="C320" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12561,7 +12530,7 @@
         <v>1091</v>
       </c>
       <c r="C321" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12570,7 +12539,7 @@
         <v>1197</v>
       </c>
       <c r="C322" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12579,7 +12548,7 @@
         <v>1628</v>
       </c>
       <c r="C323" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12588,7 +12557,7 @@
         <v>1942</v>
       </c>
       <c r="C324" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12597,7 +12566,7 @@
         <v>1075</v>
       </c>
       <c r="C325" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12606,7 +12575,7 @@
         <v>1625</v>
       </c>
       <c r="C326" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12615,7 +12584,7 @@
         <v>1644</v>
       </c>
       <c r="C327" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12624,7 +12593,7 @@
         <v>1325</v>
       </c>
       <c r="C328" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12633,7 +12602,7 @@
         <v>1541</v>
       </c>
       <c r="C329" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12642,7 +12611,7 @@
         <v>1720</v>
       </c>
       <c r="C330" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12651,7 +12620,7 @@
         <v>1828</v>
       </c>
       <c r="C331" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12660,7 +12629,7 @@
         <v>1642</v>
       </c>
       <c r="C332" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12669,7 +12638,7 @@
         <v>1524</v>
       </c>
       <c r="C333" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12678,7 +12647,7 @@
         <v>1118</v>
       </c>
       <c r="C334" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12687,7 +12656,7 @@
         <v>1262</v>
       </c>
       <c r="C335" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12696,7 +12665,7 @@
         <v>1432</v>
       </c>
       <c r="C336" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12705,7 +12674,7 @@
         <v>1296</v>
       </c>
       <c r="C337" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12714,7 +12683,7 @@
         <v>1597</v>
       </c>
       <c r="C338" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12723,7 +12692,7 @@
         <v>1082</v>
       </c>
       <c r="C339" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12732,7 +12701,7 @@
         <v>1308</v>
       </c>
       <c r="C340" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12741,7 +12710,7 @@
         <v>1634</v>
       </c>
       <c r="C341" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12750,7 +12719,7 @@
         <v>1171</v>
       </c>
       <c r="C342" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12759,7 +12728,7 @@
         <v>1360</v>
       </c>
       <c r="C343" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12768,7 +12737,7 @@
         <v>1856</v>
       </c>
       <c r="C344" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12777,7 +12746,7 @@
         <v>1154</v>
       </c>
       <c r="C345" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12786,7 +12755,7 @@
         <v>1275</v>
       </c>
       <c r="C346" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12795,7 +12764,7 @@
         <v>1253</v>
       </c>
       <c r="C347" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12804,7 +12773,7 @@
         <v>1548</v>
       </c>
       <c r="C348" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12813,7 +12782,7 @@
         <v>1641</v>
       </c>
       <c r="C349" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12822,7 +12791,7 @@
         <v>1899</v>
       </c>
       <c r="C350" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12831,7 +12800,7 @@
         <v>1381</v>
       </c>
       <c r="C351" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12840,7 +12809,7 @@
         <v>1025</v>
       </c>
       <c r="C352" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12849,7 +12818,7 @@
         <v>1272</v>
       </c>
       <c r="C353" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12858,7 +12827,7 @@
         <v>1078</v>
       </c>
       <c r="C354" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12867,7 +12836,7 @@
         <v>1896</v>
       </c>
       <c r="C355" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12876,7 +12845,7 @@
         <v>1626</v>
       </c>
       <c r="C356" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12885,7 +12854,7 @@
         <v>1148</v>
       </c>
       <c r="C357" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12894,7 +12863,7 @@
         <v>1692</v>
       </c>
       <c r="C358" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12903,7 +12872,7 @@
         <v>1004</v>
       </c>
       <c r="C359" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12912,7 +12881,7 @@
         <v>1560</v>
       </c>
       <c r="C360" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12921,7 +12890,7 @@
         <v>1654</v>
       </c>
       <c r="C361" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12930,7 +12899,7 @@
         <v>1531</v>
       </c>
       <c r="C362" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12939,7 +12908,7 @@
         <v>1602</v>
       </c>
       <c r="C363" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12948,7 +12917,7 @@
         <v>1620</v>
       </c>
       <c r="C364" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12957,7 +12926,7 @@
         <v>1636</v>
       </c>
       <c r="C365" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12966,7 +12935,7 @@
         <v>1311</v>
       </c>
       <c r="C366" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12975,7 +12944,7 @@
         <v>1511</v>
       </c>
       <c r="C367" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12984,7 +12953,7 @@
         <v>1302</v>
       </c>
       <c r="C368" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12993,7 +12962,7 @@
         <v>1376</v>
       </c>
       <c r="C369" t="b">
-        <f>+ISNUMBER(B369)</f>
+        <f t="shared" ref="C369:C400" si="7">+ISNUMBER(B369)</f>
         <v>0</v>
       </c>
     </row>
@@ -13002,7 +12971,7 @@
         <v>1849</v>
       </c>
       <c r="C370" t="b">
-        <f>+ISNUMBER(B370)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13011,7 +12980,7 @@
         <v>1681</v>
       </c>
       <c r="C371" t="b">
-        <f>+ISNUMBER(B371)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13020,7 +12989,7 @@
         <v>1027</v>
       </c>
       <c r="C372" t="b">
-        <f>+ISNUMBER(B372)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13029,7 +12998,7 @@
         <v>1562</v>
       </c>
       <c r="C373" t="b">
-        <f>+ISNUMBER(B373)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13038,7 +13007,7 @@
         <v>1123</v>
       </c>
       <c r="C374" t="b">
-        <f>+ISNUMBER(B374)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13047,7 +13016,7 @@
         <v>1619</v>
       </c>
       <c r="C375" t="b">
-        <f>+ISNUMBER(B375)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13056,7 +13025,7 @@
         <v>1499</v>
       </c>
       <c r="C376" t="b">
-        <f>+ISNUMBER(B376)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13065,7 +13034,7 @@
         <v>1907</v>
       </c>
       <c r="C377" t="b">
-        <f>+ISNUMBER(B377)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13074,7 +13043,7 @@
         <v>1540</v>
       </c>
       <c r="C378" t="b">
-        <f>+ISNUMBER(B378)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13083,7 +13052,7 @@
         <v>1482</v>
       </c>
       <c r="C379" t="b">
-        <f>+ISNUMBER(B379)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13092,7 +13061,7 @@
         <v>1269</v>
       </c>
       <c r="C380" t="b">
-        <f>+ISNUMBER(B380)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13101,7 +13070,7 @@
         <v>1313</v>
       </c>
       <c r="C381" t="b">
-        <f>+ISNUMBER(B381)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13110,7 +13079,7 @@
         <v>1487</v>
       </c>
       <c r="C382" t="b">
-        <f>+ISNUMBER(B382)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13119,7 +13088,7 @@
         <v>1016</v>
       </c>
       <c r="C383" t="b">
-        <f>+ISNUMBER(B383)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13128,7 +13097,7 @@
         <v>1909</v>
       </c>
       <c r="C384" t="b">
-        <f>+ISNUMBER(B384)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13137,7 +13106,7 @@
         <v>1617</v>
       </c>
       <c r="C385" t="b">
-        <f>+ISNUMBER(B385)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13146,7 +13115,7 @@
         <v>1339</v>
       </c>
       <c r="C386" t="b">
-        <f>+ISNUMBER(B386)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13155,7 +13124,7 @@
         <v>1041</v>
       </c>
       <c r="C387" t="b">
-        <f>+ISNUMBER(B387)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13164,7 +13133,7 @@
         <v>1243</v>
       </c>
       <c r="C388" t="b">
-        <f>+ISNUMBER(B388)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13173,7 +13142,7 @@
         <v>1334</v>
       </c>
       <c r="C389" t="b">
-        <f>+ISNUMBER(B389)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13182,7 +13151,7 @@
         <v>1122</v>
       </c>
       <c r="C390" t="b">
-        <f>+ISNUMBER(B390)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13191,7 +13160,7 @@
         <v>1409</v>
       </c>
       <c r="C391" t="b">
-        <f>+ISNUMBER(B391)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13200,7 +13169,7 @@
         <v>1537</v>
       </c>
       <c r="C392" t="b">
-        <f>+ISNUMBER(B392)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13209,7 +13178,7 @@
         <v>1777</v>
       </c>
       <c r="C393" t="b">
-        <f>+ISNUMBER(B393)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13218,7 +13187,7 @@
         <v>1005</v>
       </c>
       <c r="C394" t="b">
-        <f>+ISNUMBER(B394)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13227,7 +13196,7 @@
         <v>1248</v>
       </c>
       <c r="C395" t="b">
-        <f>+ISNUMBER(B395)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13236,7 +13205,7 @@
         <v>1627</v>
       </c>
       <c r="C396" t="b">
-        <f>+ISNUMBER(B396)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13245,7 +13214,7 @@
         <v>1046</v>
       </c>
       <c r="C397" t="b">
-        <f>+ISNUMBER(B397)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13254,7 +13223,7 @@
         <v>1558</v>
       </c>
       <c r="C398" t="b">
-        <f>+ISNUMBER(B398)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13263,7 +13232,7 @@
         <v>1855</v>
       </c>
       <c r="C399" t="b">
-        <f>+ISNUMBER(B399)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13272,7 +13241,7 @@
         <v>1181</v>
       </c>
       <c r="C400" t="b">
-        <f>+ISNUMBER(B400)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13281,7 +13250,7 @@
         <v>1545</v>
       </c>
       <c r="C401" t="b">
-        <f>+ISNUMBER(B401)</f>
+        <f t="shared" ref="C401:C432" si="8">+ISNUMBER(B401)</f>
         <v>0</v>
       </c>
     </row>
@@ -13290,7 +13259,7 @@
         <v>1552</v>
       </c>
       <c r="C402" t="b">
-        <f>+ISNUMBER(B402)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13299,7 +13268,7 @@
         <v>1576</v>
       </c>
       <c r="C403" t="b">
-        <f>+ISNUMBER(B403)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13308,7 +13277,7 @@
         <v>1662</v>
       </c>
       <c r="C404" t="b">
-        <f>+ISNUMBER(B404)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13317,7 +13286,7 @@
         <v>1575</v>
       </c>
       <c r="C405" t="b">
-        <f>+ISNUMBER(B405)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13326,7 +13295,7 @@
         <v>1637</v>
       </c>
       <c r="C406" t="b">
-        <f>+ISNUMBER(B406)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13335,7 +13304,7 @@
         <v>1715</v>
       </c>
       <c r="C407" t="b">
-        <f>+ISNUMBER(B407)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13344,7 +13313,7 @@
         <v>1136</v>
       </c>
       <c r="C408" t="b">
-        <f>+ISNUMBER(B408)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13353,7 +13322,7 @@
         <v>1182</v>
       </c>
       <c r="C409" t="b">
-        <f>+ISNUMBER(B409)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13362,7 +13331,7 @@
         <v>1885</v>
       </c>
       <c r="C410" t="b">
-        <f>+ISNUMBER(B410)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13371,7 +13340,7 @@
         <v>1509</v>
       </c>
       <c r="C411" t="b">
-        <f>+ISNUMBER(B411)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13380,7 +13349,7 @@
         <v>1881</v>
       </c>
       <c r="C412" t="b">
-        <f>+ISNUMBER(B412)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13389,7 +13358,7 @@
         <v>1526</v>
       </c>
       <c r="C413" t="b">
-        <f>+ISNUMBER(B413)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13398,7 +13367,7 @@
         <v>1584</v>
       </c>
       <c r="C414" t="b">
-        <f>+ISNUMBER(B414)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13407,7 +13376,7 @@
         <v>1621</v>
       </c>
       <c r="C415" t="b">
-        <f>+ISNUMBER(B415)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13416,7 +13385,7 @@
         <v>1186</v>
       </c>
       <c r="C416" t="b">
-        <f>+ISNUMBER(B416)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13425,7 +13394,7 @@
         <v>1080</v>
       </c>
       <c r="C417" t="b">
-        <f>+ISNUMBER(B417)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13434,7 +13403,7 @@
         <v>1330</v>
       </c>
       <c r="C418" t="b">
-        <f>+ISNUMBER(B418)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13443,7 +13412,7 @@
         <v>1447</v>
       </c>
       <c r="C419" t="b">
-        <f>+ISNUMBER(B419)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13452,7 +13421,7 @@
         <v>1348</v>
       </c>
       <c r="C420" t="b">
-        <f>+ISNUMBER(B420)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13461,7 +13430,7 @@
         <v>1725</v>
       </c>
       <c r="C421" t="b">
-        <f>+ISNUMBER(B421)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13470,7 +13439,7 @@
         <v>1905</v>
       </c>
       <c r="C422" t="b">
-        <f>+ISNUMBER(B422)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13479,7 +13448,7 @@
         <v>1252</v>
       </c>
       <c r="C423" t="b">
-        <f>+ISNUMBER(B423)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13488,7 +13457,7 @@
         <v>1244</v>
       </c>
       <c r="C424" t="b">
-        <f>+ISNUMBER(B424)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13497,7 +13466,7 @@
         <v>1008</v>
       </c>
       <c r="C425" t="b">
-        <f>+ISNUMBER(B425)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13506,7 +13475,7 @@
         <v>1015</v>
       </c>
       <c r="C426" t="b">
-        <f>+ISNUMBER(B426)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13515,7 +13484,7 @@
         <v>1921</v>
       </c>
       <c r="C427" t="b">
-        <f>+ISNUMBER(B427)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13524,7 +13493,7 @@
         <v>1079</v>
       </c>
       <c r="C428" t="b">
-        <f>+ISNUMBER(B428)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13596,7 +13565,7 @@
         <v>1392</v>
       </c>
       <c r="C437" t="b">
-        <f t="shared" ref="C437:C442" si="6">+ISNUMBER(B437)</f>
+        <f t="shared" ref="C437:C442" si="9">+ISNUMBER(B437)</f>
         <v>0</v>
       </c>
     </row>
@@ -13605,7 +13574,7 @@
         <v>1742</v>
       </c>
       <c r="C438" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13614,7 +13583,7 @@
         <v>1948</v>
       </c>
       <c r="C439" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13623,7 +13592,7 @@
         <v>1053</v>
       </c>
       <c r="C440" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13632,7 +13601,7 @@
         <v>1293</v>
       </c>
       <c r="C441" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13641,7 +13610,7 @@
         <v>1040</v>
       </c>
       <c r="C442" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13650,7 +13619,7 @@
         <v>1827</v>
       </c>
       <c r="C443" t="b">
-        <f t="shared" ref="C443:C444" si="7">+ISNUMBER(B443)</f>
+        <f t="shared" ref="C443:C444" si="10">+ISNUMBER(B443)</f>
         <v>0</v>
       </c>
     </row>
@@ -13659,7 +13628,7 @@
         <v>1412</v>
       </c>
       <c r="C444" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13668,7 +13637,7 @@
         <v>1580</v>
       </c>
       <c r="C445" t="b">
-        <f t="shared" ref="C445:C508" si="8">+ISNUMBER(B445)</f>
+        <f t="shared" ref="C445:C508" si="11">+ISNUMBER(B445)</f>
         <v>0</v>
       </c>
     </row>
@@ -13677,7 +13646,7 @@
         <v>1639</v>
       </c>
       <c r="C446" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13686,7 +13655,7 @@
         <v>1052</v>
       </c>
       <c r="C447" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13695,7 +13664,7 @@
         <v>1488</v>
       </c>
       <c r="C448" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13704,7 +13673,7 @@
         <v>1076</v>
       </c>
       <c r="C449" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13713,7 +13682,7 @@
         <v>1211</v>
       </c>
       <c r="C450" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13722,7 +13691,7 @@
         <v>1833</v>
       </c>
       <c r="C451" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13731,7 +13700,7 @@
         <v>1400</v>
       </c>
       <c r="C452" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13740,7 +13709,7 @@
         <v>1690</v>
       </c>
       <c r="C453" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13749,7 +13718,7 @@
         <v>1863</v>
       </c>
       <c r="C454" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13758,7 +13727,7 @@
         <v>1305</v>
       </c>
       <c r="C455" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13767,7 +13736,7 @@
         <v>1801</v>
       </c>
       <c r="C456" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13776,7 +13745,7 @@
         <v>1086</v>
       </c>
       <c r="C457" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13785,7 +13754,7 @@
         <v>1747</v>
       </c>
       <c r="C458" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13794,7 +13763,7 @@
         <v>1436</v>
       </c>
       <c r="C459" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13803,7 +13772,7 @@
         <v>1879</v>
       </c>
       <c r="C460" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13812,7 +13781,7 @@
         <v>1735</v>
       </c>
       <c r="C461" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13821,7 +13790,7 @@
         <v>1739</v>
       </c>
       <c r="C462" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13830,7 +13799,7 @@
         <v>1502</v>
       </c>
       <c r="C463" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13839,7 +13808,7 @@
         <v>1445</v>
       </c>
       <c r="C464" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13848,7 +13817,7 @@
         <v>1285</v>
       </c>
       <c r="C465" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13857,7 +13826,7 @@
         <v>1127</v>
       </c>
       <c r="C466" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13866,7 +13835,7 @@
         <v>1797</v>
       </c>
       <c r="C467" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13875,7 +13844,7 @@
         <v>1100</v>
       </c>
       <c r="C468" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13884,7 +13853,7 @@
         <v>1372</v>
       </c>
       <c r="C469" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13893,7 +13862,7 @@
         <v>1193</v>
       </c>
       <c r="C470" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13902,7 +13871,7 @@
         <v>1911</v>
       </c>
       <c r="C471" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13911,7 +13880,7 @@
         <v>1279</v>
       </c>
       <c r="C472" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13920,7 +13889,7 @@
         <v>1754</v>
       </c>
       <c r="C473" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13929,7 +13898,7 @@
         <v>1549</v>
       </c>
       <c r="C474" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13938,7 +13907,7 @@
         <v>1551</v>
       </c>
       <c r="C475" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13947,7 +13916,7 @@
         <v>1422</v>
       </c>
       <c r="C476" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13956,7 +13925,7 @@
         <v>1751</v>
       </c>
       <c r="C477" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13965,7 +13934,7 @@
         <v>1593</v>
       </c>
       <c r="C478" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13974,7 +13943,7 @@
         <v>1655</v>
       </c>
       <c r="C479" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13983,7 +13952,7 @@
         <v>1327</v>
       </c>
       <c r="C480" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13992,7 +13961,7 @@
         <v>1347</v>
       </c>
       <c r="C481" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14001,7 +13970,7 @@
         <v>1098</v>
       </c>
       <c r="C482" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14010,7 +13979,7 @@
         <v>1640</v>
       </c>
       <c r="C483" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14019,7 +13988,7 @@
         <v>1744</v>
       </c>
       <c r="C484" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14028,7 +13997,7 @@
         <v>1571</v>
       </c>
       <c r="C485" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14037,7 +14006,7 @@
         <v>1384</v>
       </c>
       <c r="C486" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14046,7 +14015,7 @@
         <v>1893</v>
       </c>
       <c r="C487" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14055,7 +14024,7 @@
         <v>1684</v>
       </c>
       <c r="C488" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14064,7 +14033,7 @@
         <v>1590</v>
       </c>
       <c r="C489" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14073,7 +14042,7 @@
         <v>1276</v>
       </c>
       <c r="C490" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14082,7 +14051,7 @@
         <v>1153</v>
       </c>
       <c r="C491" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14091,7 +14060,7 @@
         <v>1390</v>
       </c>
       <c r="C492" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14100,7 +14069,7 @@
         <v>1419</v>
       </c>
       <c r="C493" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14109,7 +14078,7 @@
         <v>1250</v>
       </c>
       <c r="C494" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14118,7 +14087,7 @@
         <v>1219</v>
       </c>
       <c r="C495" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14127,7 +14096,7 @@
         <v>1647</v>
       </c>
       <c r="C496" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14136,7 +14105,7 @@
         <v>1273</v>
       </c>
       <c r="C497" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14145,7 +14114,7 @@
         <v>1450</v>
       </c>
       <c r="C498" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14154,7 +14123,7 @@
         <v>1363</v>
       </c>
       <c r="C499" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14163,7 +14132,7 @@
         <v>1039</v>
       </c>
       <c r="C500" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14172,7 +14141,7 @@
         <v>1860</v>
       </c>
       <c r="C501" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14181,7 +14150,7 @@
         <v>1932</v>
       </c>
       <c r="C502" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14190,7 +14159,7 @@
         <v>1823</v>
       </c>
       <c r="C503" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14199,7 +14168,7 @@
         <v>1719</v>
       </c>
       <c r="C504" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14208,7 +14177,7 @@
         <v>1133</v>
       </c>
       <c r="C505" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14217,7 +14186,7 @@
         <v>1375</v>
       </c>
       <c r="C506" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14226,7 +14195,7 @@
         <v>1395</v>
       </c>
       <c r="C507" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14235,7 +14204,7 @@
         <v>1857</v>
       </c>
       <c r="C508" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14244,7 +14213,7 @@
         <v>1600</v>
       </c>
       <c r="C509" t="b">
-        <f t="shared" ref="C509:C572" si="9">+ISNUMBER(B509)</f>
+        <f t="shared" ref="C509:C572" si="12">+ISNUMBER(B509)</f>
         <v>0</v>
       </c>
     </row>
@@ -14253,7 +14222,7 @@
         <v>1235</v>
       </c>
       <c r="C510" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14262,7 +14231,7 @@
         <v>1518</v>
       </c>
       <c r="C511" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14271,7 +14240,7 @@
         <v>1383</v>
       </c>
       <c r="C512" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14280,7 +14249,7 @@
         <v>1570</v>
       </c>
       <c r="C513" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14289,7 +14258,7 @@
         <v>1738</v>
       </c>
       <c r="C514" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14298,7 +14267,7 @@
         <v>1430</v>
       </c>
       <c r="C515" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14307,7 +14276,7 @@
         <v>1895</v>
       </c>
       <c r="C516" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14316,7 +14285,7 @@
         <v>1596</v>
       </c>
       <c r="C517" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14325,7 +14294,7 @@
         <v>1778</v>
       </c>
       <c r="C518" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14334,7 +14303,7 @@
         <v>1223</v>
       </c>
       <c r="C519" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14343,7 +14312,7 @@
         <v>1189</v>
       </c>
       <c r="C520" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14352,7 +14321,7 @@
         <v>1401</v>
       </c>
       <c r="C521" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14361,7 +14330,7 @@
         <v>1535</v>
       </c>
       <c r="C522" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14370,7 +14339,7 @@
         <v>1809</v>
       </c>
       <c r="C523" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14379,7 +14348,7 @@
         <v>1201</v>
       </c>
       <c r="C524" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14388,7 +14357,7 @@
         <v>1268</v>
       </c>
       <c r="C525" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14397,7 +14366,7 @@
         <v>1729</v>
       </c>
       <c r="C526" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14406,7 +14375,7 @@
         <v>1134</v>
       </c>
       <c r="C527" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14415,7 +14384,7 @@
         <v>1222</v>
       </c>
       <c r="C528" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14424,7 +14393,7 @@
         <v>1344</v>
       </c>
       <c r="C529" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14433,7 +14402,7 @@
         <v>1589</v>
       </c>
       <c r="C530" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14442,7 +14411,7 @@
         <v>1418</v>
       </c>
       <c r="C531" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14451,7 +14420,7 @@
         <v>1821</v>
       </c>
       <c r="C532" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14460,7 +14429,7 @@
         <v>1694</v>
       </c>
       <c r="C533" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14469,7 +14438,7 @@
         <v>1756</v>
       </c>
       <c r="C534" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14478,7 +14447,7 @@
         <v>1665</v>
       </c>
       <c r="C535" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14487,7 +14456,7 @@
         <v>1850</v>
       </c>
       <c r="C536" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14496,7 +14465,7 @@
         <v>1669</v>
       </c>
       <c r="C537" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14505,7 +14474,7 @@
         <v>1795</v>
       </c>
       <c r="C538" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14514,7 +14483,7 @@
         <v>1371</v>
       </c>
       <c r="C539" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14523,7 +14492,7 @@
         <v>1236</v>
       </c>
       <c r="C540" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14532,7 +14501,7 @@
         <v>1633</v>
       </c>
       <c r="C541" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14541,7 +14510,7 @@
         <v>1199</v>
       </c>
       <c r="C542" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14550,7 +14519,7 @@
         <v>1321</v>
       </c>
       <c r="C543" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14559,7 +14528,7 @@
         <v>1047</v>
       </c>
       <c r="C544" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14568,7 +14537,7 @@
         <v>1174</v>
       </c>
       <c r="C545" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14577,7 +14546,7 @@
         <v>1132</v>
       </c>
       <c r="C546" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14586,7 +14555,7 @@
         <v>1862</v>
       </c>
       <c r="C547" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14595,7 +14564,7 @@
         <v>1708</v>
       </c>
       <c r="C548" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14604,7 +14573,7 @@
         <v>1144</v>
       </c>
       <c r="C549" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14613,7 +14582,7 @@
         <v>1065</v>
       </c>
       <c r="C550" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14622,7 +14591,7 @@
         <v>1117</v>
       </c>
       <c r="C551" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14631,7 +14600,7 @@
         <v>1093</v>
       </c>
       <c r="C552" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14640,7 +14609,7 @@
         <v>1135</v>
       </c>
       <c r="C553" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14649,7 +14618,7 @@
         <v>1184</v>
       </c>
       <c r="C554" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14658,7 +14627,7 @@
         <v>1259</v>
       </c>
       <c r="C555" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14667,7 +14636,7 @@
         <v>1130</v>
       </c>
       <c r="C556" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14676,7 +14645,7 @@
         <v>1515</v>
       </c>
       <c r="C557" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14685,7 +14654,7 @@
         <v>1646</v>
       </c>
       <c r="C558" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14694,7 +14663,7 @@
         <v>1749</v>
       </c>
       <c r="C559" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14703,7 +14672,7 @@
         <v>1258</v>
       </c>
       <c r="C560" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14712,7 +14681,7 @@
         <v>1666</v>
       </c>
       <c r="C561" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14721,7 +14690,7 @@
         <v>1232</v>
       </c>
       <c r="C562" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14730,7 +14699,7 @@
         <v>1099</v>
       </c>
       <c r="C563" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14739,7 +14708,7 @@
         <v>1361</v>
       </c>
       <c r="C564" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14748,7 +14717,7 @@
         <v>1349</v>
       </c>
       <c r="C565" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14757,7 +14726,7 @@
         <v>1452</v>
       </c>
       <c r="C566" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14766,7 +14735,7 @@
         <v>1923</v>
       </c>
       <c r="C567" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14775,7 +14744,7 @@
         <v>1286</v>
       </c>
       <c r="C568" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14784,7 +14753,7 @@
         <v>1843</v>
       </c>
       <c r="C569" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14793,7 +14762,7 @@
         <v>1920</v>
       </c>
       <c r="C570" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14802,7 +14771,7 @@
         <v>1882</v>
       </c>
       <c r="C571" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14811,7 +14780,7 @@
         <v>1158</v>
       </c>
       <c r="C572" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14820,7 +14789,7 @@
         <v>1128</v>
       </c>
       <c r="C573" t="b">
-        <f t="shared" ref="C573:C636" si="10">+ISNUMBER(B573)</f>
+        <f t="shared" ref="C573:C636" si="13">+ISNUMBER(B573)</f>
         <v>0</v>
       </c>
     </row>
@@ -14829,7 +14798,7 @@
         <v>1350</v>
       </c>
       <c r="C574" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14838,7 +14807,7 @@
         <v>1917</v>
       </c>
       <c r="C575" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14847,7 +14816,7 @@
         <v>1794</v>
       </c>
       <c r="C576" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14856,7 +14825,7 @@
         <v>1513</v>
       </c>
       <c r="C577" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14865,7 +14834,7 @@
         <v>1892</v>
       </c>
       <c r="C578" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14874,7 +14843,7 @@
         <v>1029</v>
       </c>
       <c r="C579" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14883,7 +14852,7 @@
         <v>1771</v>
       </c>
       <c r="C580" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14892,7 +14861,7 @@
         <v>1826</v>
       </c>
       <c r="C581" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14901,7 +14870,7 @@
         <v>1578</v>
       </c>
       <c r="C582" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14910,7 +14879,7 @@
         <v>1332</v>
       </c>
       <c r="C583" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14919,7 +14888,7 @@
         <v>1240</v>
       </c>
       <c r="C584" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14928,7 +14897,7 @@
         <v>1486</v>
       </c>
       <c r="C585" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14937,7 +14906,7 @@
         <v>1611</v>
       </c>
       <c r="C586" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14946,7 +14915,7 @@
         <v>1271</v>
       </c>
       <c r="C587" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14955,7 +14924,7 @@
         <v>1884</v>
       </c>
       <c r="C588" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14964,7 +14933,7 @@
         <v>1215</v>
       </c>
       <c r="C589" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14973,7 +14942,7 @@
         <v>1333</v>
       </c>
       <c r="C590" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14982,7 +14951,7 @@
         <v>1264</v>
       </c>
       <c r="C591" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14991,7 +14960,7 @@
         <v>1379</v>
       </c>
       <c r="C592" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15000,7 +14969,7 @@
         <v>1034</v>
       </c>
       <c r="C593" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15009,7 +14978,7 @@
         <v>1110</v>
       </c>
       <c r="C594" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15018,7 +14987,7 @@
         <v>998</v>
       </c>
       <c r="C595" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15027,7 +14996,7 @@
         <v>1277</v>
       </c>
       <c r="C596" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15036,7 +15005,7 @@
         <v>1442</v>
       </c>
       <c r="C597" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15045,7 +15014,7 @@
         <v>1565</v>
       </c>
       <c r="C598" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15054,7 +15023,7 @@
         <v>1506</v>
       </c>
       <c r="C599" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15063,7 +15032,7 @@
         <v>1630</v>
       </c>
       <c r="C600" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15072,7 +15041,7 @@
         <v>1748</v>
       </c>
       <c r="C601" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15081,7 +15050,7 @@
         <v>1089</v>
       </c>
       <c r="C602" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15090,7 +15059,7 @@
         <v>1765</v>
       </c>
       <c r="C603" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15099,7 +15068,7 @@
         <v>1048</v>
       </c>
       <c r="C604" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15108,7 +15077,7 @@
         <v>1706</v>
       </c>
       <c r="C605" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15117,7 +15086,7 @@
         <v>1926</v>
       </c>
       <c r="C606" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15126,7 +15095,7 @@
         <v>1149</v>
       </c>
       <c r="C607" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15135,7 +15104,7 @@
         <v>1314</v>
       </c>
       <c r="C608" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15144,7 +15113,7 @@
         <v>1519</v>
       </c>
       <c r="C609" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15153,7 +15122,7 @@
         <v>1263</v>
       </c>
       <c r="C610" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15162,7 +15131,7 @@
         <v>1804</v>
       </c>
       <c r="C611" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15171,7 +15140,7 @@
         <v>1852</v>
       </c>
       <c r="C612" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15180,7 +15149,7 @@
         <v>1291</v>
       </c>
       <c r="C613" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15189,7 +15158,7 @@
         <v>1622</v>
       </c>
       <c r="C614" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15198,7 +15167,7 @@
         <v>1774</v>
       </c>
       <c r="C615" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15207,7 +15176,7 @@
         <v>1413</v>
       </c>
       <c r="C616" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15216,7 +15185,7 @@
         <v>1775</v>
       </c>
       <c r="C617" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15225,7 +15194,7 @@
         <v>1083</v>
       </c>
       <c r="C618" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15234,7 +15203,7 @@
         <v>1871</v>
       </c>
       <c r="C619" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15243,7 +15212,7 @@
         <v>1661</v>
       </c>
       <c r="C620" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15252,7 +15221,7 @@
         <v>1782</v>
       </c>
       <c r="C621" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15261,7 +15230,7 @@
         <v>1564</v>
       </c>
       <c r="C622" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15270,7 +15239,7 @@
         <v>1309</v>
       </c>
       <c r="C623" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15279,7 +15248,7 @@
         <v>1408</v>
       </c>
       <c r="C624" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15288,7 +15257,7 @@
         <v>1362</v>
       </c>
       <c r="C625" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15297,7 +15266,7 @@
         <v>1030</v>
       </c>
       <c r="C626" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15306,7 +15275,7 @@
         <v>1357</v>
       </c>
       <c r="C627" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15315,7 +15284,7 @@
         <v>1389</v>
       </c>
       <c r="C628" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15324,7 +15293,7 @@
         <v>1303</v>
       </c>
       <c r="C629" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15333,7 +15302,7 @@
         <v>1820</v>
       </c>
       <c r="C630" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15342,7 +15311,7 @@
         <v>1766</v>
       </c>
       <c r="C631" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15351,7 +15320,7 @@
         <v>1037</v>
       </c>
       <c r="C632" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15360,7 +15329,7 @@
         <v>1582</v>
       </c>
       <c r="C633" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15369,7 +15338,7 @@
         <v>1009</v>
       </c>
       <c r="C634" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15378,7 +15347,7 @@
         <v>1202</v>
       </c>
       <c r="C635" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15387,7 +15356,7 @@
         <v>1831</v>
       </c>
       <c r="C636" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15396,7 +15365,7 @@
         <v>1924</v>
       </c>
       <c r="C637" t="b">
-        <f t="shared" ref="C637:C700" si="11">+ISNUMBER(B637)</f>
+        <f t="shared" ref="C637:C700" si="14">+ISNUMBER(B637)</f>
         <v>0</v>
       </c>
     </row>
@@ -15405,7 +15374,7 @@
         <v>1767</v>
       </c>
       <c r="C638" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15414,7 +15383,7 @@
         <v>1161</v>
       </c>
       <c r="C639" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15423,7 +15392,7 @@
         <v>1709</v>
       </c>
       <c r="C640" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15432,7 +15401,7 @@
         <v>1750</v>
       </c>
       <c r="C641" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15441,7 +15410,7 @@
         <v>1652</v>
       </c>
       <c r="C642" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15450,7 +15419,7 @@
         <v>1703</v>
       </c>
       <c r="C643" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15459,7 +15428,7 @@
         <v>1054</v>
       </c>
       <c r="C644" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15468,7 +15437,7 @@
         <v>1198</v>
       </c>
       <c r="C645" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15477,7 +15446,7 @@
         <v>1663</v>
       </c>
       <c r="C646" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15486,7 +15455,7 @@
         <v>1769</v>
       </c>
       <c r="C647" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15495,7 +15464,7 @@
         <v>1231</v>
       </c>
       <c r="C648" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15504,7 +15473,7 @@
         <v>1032</v>
       </c>
       <c r="C649" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15513,7 +15482,7 @@
         <v>1167</v>
       </c>
       <c r="C650" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15522,7 +15491,7 @@
         <v>1759</v>
       </c>
       <c r="C651" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15531,7 +15500,7 @@
         <v>1138</v>
       </c>
       <c r="C652" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15540,7 +15509,7 @@
         <v>1799</v>
       </c>
       <c r="C653" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15549,7 +15518,7 @@
         <v>1638</v>
       </c>
       <c r="C654" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15558,7 +15527,7 @@
         <v>1142</v>
       </c>
       <c r="C655" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15567,7 +15536,7 @@
         <v>1563</v>
       </c>
       <c r="C656" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15576,7 +15545,7 @@
         <v>1677</v>
       </c>
       <c r="C657" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15585,7 +15554,7 @@
         <v>1017</v>
       </c>
       <c r="C658" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15594,7 +15563,7 @@
         <v>1157</v>
       </c>
       <c r="C659" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15603,7 +15572,7 @@
         <v>1889</v>
       </c>
       <c r="C660" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15612,7 +15581,7 @@
         <v>1066</v>
       </c>
       <c r="C661" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15621,7 +15590,7 @@
         <v>1042</v>
       </c>
       <c r="C662" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15630,7 +15599,7 @@
         <v>1006</v>
       </c>
       <c r="C663" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15639,7 +15608,7 @@
         <v>1081</v>
       </c>
       <c r="C664" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15648,7 +15617,7 @@
         <v>1829</v>
       </c>
       <c r="C665" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15657,7 +15626,7 @@
         <v>1717</v>
       </c>
       <c r="C666" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15666,7 +15635,7 @@
         <v>1811</v>
       </c>
       <c r="C667" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15675,7 +15644,7 @@
         <v>1835</v>
       </c>
       <c r="C668" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15684,7 +15653,7 @@
         <v>1373</v>
       </c>
       <c r="C669" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15693,7 +15662,7 @@
         <v>1658</v>
       </c>
       <c r="C670" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15702,7 +15671,7 @@
         <v>1374</v>
       </c>
       <c r="C671" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15711,7 +15680,7 @@
         <v>1018</v>
       </c>
       <c r="C672" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15720,7 +15689,7 @@
         <v>1929</v>
       </c>
       <c r="C673" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15729,7 +15698,7 @@
         <v>1700</v>
       </c>
       <c r="C674" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15738,7 +15707,7 @@
         <v>1656</v>
       </c>
       <c r="C675" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15747,7 +15716,7 @@
         <v>1939</v>
       </c>
       <c r="C676" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15756,7 +15725,7 @@
         <v>1675</v>
       </c>
       <c r="C677" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15765,7 +15734,7 @@
         <v>1270</v>
       </c>
       <c r="C678" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15774,7 +15743,7 @@
         <v>1187</v>
       </c>
       <c r="C679" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15783,7 +15752,7 @@
         <v>1770</v>
       </c>
       <c r="C680" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15792,7 +15761,7 @@
         <v>1543</v>
       </c>
       <c r="C681" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15801,7 +15770,7 @@
         <v>1702</v>
       </c>
       <c r="C682" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15810,7 +15779,7 @@
         <v>1887</v>
       </c>
       <c r="C683" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15819,7 +15788,7 @@
         <v>1434</v>
       </c>
       <c r="C684" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15828,7 +15797,7 @@
         <v>1049</v>
       </c>
       <c r="C685" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15837,7 +15806,7 @@
         <v>1928</v>
       </c>
       <c r="C686" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15846,7 +15815,7 @@
         <v>1510</v>
       </c>
       <c r="C687" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15855,7 +15824,7 @@
         <v>1462</v>
       </c>
       <c r="C688" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15864,7 +15833,7 @@
         <v>1922</v>
       </c>
       <c r="C689" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15873,7 +15842,7 @@
         <v>1023</v>
       </c>
       <c r="C690" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15882,7 +15851,7 @@
         <v>1695</v>
       </c>
       <c r="C691" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15891,7 +15860,7 @@
         <v>1424</v>
       </c>
       <c r="C692" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15900,7 +15869,7 @@
         <v>1084</v>
       </c>
       <c r="C693" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15909,7 +15878,7 @@
         <v>1323</v>
       </c>
       <c r="C694" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15918,7 +15887,7 @@
         <v>1670</v>
       </c>
       <c r="C695" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15927,7 +15896,7 @@
         <v>1688</v>
       </c>
       <c r="C696" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15936,7 +15905,7 @@
         <v>1405</v>
       </c>
       <c r="C697" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15945,7 +15914,7 @@
         <v>1196</v>
       </c>
       <c r="C698" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15954,7 +15923,7 @@
         <v>1443</v>
       </c>
       <c r="C699" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15963,7 +15932,7 @@
         <v>1043</v>
       </c>
       <c r="C700" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15972,7 +15941,7 @@
         <v>1331</v>
       </c>
       <c r="C701" t="b">
-        <f t="shared" ref="C701:C764" si="12">+ISNUMBER(B701)</f>
+        <f t="shared" ref="C701:C764" si="15">+ISNUMBER(B701)</f>
         <v>0</v>
       </c>
     </row>
@@ -15981,7 +15950,7 @@
         <v>1481</v>
       </c>
       <c r="C702" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15990,7 +15959,7 @@
         <v>1160</v>
       </c>
       <c r="C703" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15999,7 +15968,7 @@
         <v>1807</v>
       </c>
       <c r="C704" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16008,7 +15977,7 @@
         <v>1317</v>
       </c>
       <c r="C705" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16017,7 +15986,7 @@
         <v>1059</v>
       </c>
       <c r="C706" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16026,7 +15995,7 @@
         <v>1586</v>
       </c>
       <c r="C707" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16035,7 +16004,7 @@
         <v>1489</v>
       </c>
       <c r="C708" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16044,7 +16013,7 @@
         <v>1307</v>
       </c>
       <c r="C709" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16053,7 +16022,7 @@
         <v>1534</v>
       </c>
       <c r="C710" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16062,7 +16031,7 @@
         <v>1020</v>
       </c>
       <c r="C711" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16071,7 +16040,7 @@
         <v>1294</v>
       </c>
       <c r="C712" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16080,7 +16049,7 @@
         <v>1397</v>
       </c>
       <c r="C713" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16089,7 +16058,7 @@
         <v>1925</v>
       </c>
       <c r="C714" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16098,7 +16067,7 @@
         <v>1508</v>
       </c>
       <c r="C715" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16107,7 +16076,7 @@
         <v>1460</v>
       </c>
       <c r="C716" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16116,7 +16085,7 @@
         <v>1045</v>
       </c>
       <c r="C717" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16125,7 +16094,7 @@
         <v>1453</v>
       </c>
       <c r="C718" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16134,7 +16103,7 @@
         <v>1819</v>
       </c>
       <c r="C719" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16143,7 +16112,7 @@
         <v>1190</v>
       </c>
       <c r="C720" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16152,7 +16121,7 @@
         <v>1194</v>
       </c>
       <c r="C721" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16161,7 +16130,7 @@
         <v>1505</v>
       </c>
       <c r="C722" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16170,7 +16139,7 @@
         <v>1456</v>
       </c>
       <c r="C723" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16179,7 +16148,7 @@
         <v>1227</v>
       </c>
       <c r="C724" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16188,7 +16157,7 @@
         <v>1792</v>
       </c>
       <c r="C725" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16197,7 +16166,7 @@
         <v>1683</v>
       </c>
       <c r="C726" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16206,7 +16175,7 @@
         <v>1475</v>
       </c>
       <c r="C727" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16215,7 +16184,7 @@
         <v>1335</v>
       </c>
       <c r="C728" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16224,7 +16193,7 @@
         <v>1734</v>
       </c>
       <c r="C729" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16233,7 +16202,7 @@
         <v>1651</v>
       </c>
       <c r="C730" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16242,7 +16211,7 @@
         <v>1808</v>
       </c>
       <c r="C731" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16251,7 +16220,7 @@
         <v>1568</v>
       </c>
       <c r="C732" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16260,7 +16229,7 @@
         <v>1629</v>
       </c>
       <c r="C733" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16269,7 +16238,7 @@
         <v>1483</v>
       </c>
       <c r="C734" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16278,7 +16247,7 @@
         <v>1159</v>
       </c>
       <c r="C735" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16287,7 +16256,7 @@
         <v>1741</v>
       </c>
       <c r="C736" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16296,7 +16265,7 @@
         <v>1527</v>
       </c>
       <c r="C737" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16305,7 +16274,7 @@
         <v>1476</v>
       </c>
       <c r="C738" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16314,7 +16283,7 @@
         <v>1380</v>
       </c>
       <c r="C739" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16323,7 +16292,7 @@
         <v>1891</v>
       </c>
       <c r="C740" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16332,7 +16301,7 @@
         <v>1485</v>
       </c>
       <c r="C741" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16341,7 +16310,7 @@
         <v>1934</v>
       </c>
       <c r="C742" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16350,7 +16319,7 @@
         <v>1854</v>
       </c>
       <c r="C743" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16359,7 +16328,7 @@
         <v>1341</v>
       </c>
       <c r="C744" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16368,7 +16337,7 @@
         <v>1757</v>
       </c>
       <c r="C745" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16377,7 +16346,7 @@
         <v>1572</v>
       </c>
       <c r="C746" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16386,7 +16355,7 @@
         <v>1713</v>
       </c>
       <c r="C747" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16395,7 +16364,7 @@
         <v>1095</v>
       </c>
       <c r="C748" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16404,7 +16373,7 @@
         <v>1471</v>
       </c>
       <c r="C749" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16413,7 +16382,7 @@
         <v>1753</v>
       </c>
       <c r="C750" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16422,7 +16391,7 @@
         <v>1676</v>
       </c>
       <c r="C751" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16431,7 +16400,7 @@
         <v>1635</v>
       </c>
       <c r="C752" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16440,7 +16409,7 @@
         <v>1283</v>
       </c>
       <c r="C753" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16449,7 +16418,7 @@
         <v>1124</v>
       </c>
       <c r="C754" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16458,7 +16427,7 @@
         <v>1172</v>
       </c>
       <c r="C755" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16467,7 +16436,7 @@
         <v>1284</v>
       </c>
       <c r="C756" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16476,7 +16445,7 @@
         <v>1704</v>
       </c>
       <c r="C757" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16485,7 +16454,7 @@
         <v>1872</v>
       </c>
       <c r="C758" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16494,7 +16463,7 @@
         <v>1648</v>
       </c>
       <c r="C759" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16503,7 +16472,7 @@
         <v>1678</v>
       </c>
       <c r="C760" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16512,7 +16481,7 @@
         <v>1019</v>
       </c>
       <c r="C761" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16521,7 +16490,7 @@
         <v>1915</v>
       </c>
       <c r="C762" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16530,7 +16499,7 @@
         <v>1902</v>
       </c>
       <c r="C763" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16539,7 +16508,7 @@
         <v>1299</v>
       </c>
       <c r="C764" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16548,7 +16517,7 @@
         <v>1918</v>
       </c>
       <c r="C765" t="b">
-        <f t="shared" ref="C765:C828" si="13">+ISNUMBER(B765)</f>
+        <f t="shared" ref="C765:C828" si="16">+ISNUMBER(B765)</f>
         <v>0</v>
       </c>
     </row>
@@ -16557,7 +16526,7 @@
         <v>1212</v>
       </c>
       <c r="C766" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16566,7 +16535,7 @@
         <v>1615</v>
       </c>
       <c r="C767" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16575,7 +16544,7 @@
         <v>1945</v>
       </c>
       <c r="C768" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16584,7 +16553,7 @@
         <v>1721</v>
       </c>
       <c r="C769" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16593,7 +16562,7 @@
         <v>1464</v>
       </c>
       <c r="C770" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16602,7 +16571,7 @@
         <v>1087</v>
       </c>
       <c r="C771" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16611,7 +16580,7 @@
         <v>1168</v>
       </c>
       <c r="C772" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16620,7 +16589,7 @@
         <v>1710</v>
       </c>
       <c r="C773" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16629,7 +16598,7 @@
         <v>1366</v>
       </c>
       <c r="C774" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16638,7 +16607,7 @@
         <v>1933</v>
       </c>
       <c r="C775" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16647,7 +16616,7 @@
         <v>1818</v>
       </c>
       <c r="C776" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16656,7 +16625,7 @@
         <v>1546</v>
       </c>
       <c r="C777" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16665,7 +16634,7 @@
         <v>1919</v>
       </c>
       <c r="C778" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16674,7 +16643,7 @@
         <v>1554</v>
       </c>
       <c r="C779" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16683,7 +16652,7 @@
         <v>1237</v>
       </c>
       <c r="C780" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16692,7 +16661,7 @@
         <v>1289</v>
       </c>
       <c r="C781" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16701,7 +16670,7 @@
         <v>1170</v>
       </c>
       <c r="C782" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16710,7 +16679,7 @@
         <v>1423</v>
       </c>
       <c r="C783" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16719,7 +16688,7 @@
         <v>1848</v>
       </c>
       <c r="C784" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16728,7 +16697,7 @@
         <v>1858</v>
       </c>
       <c r="C785" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16737,7 +16706,7 @@
         <v>1609</v>
       </c>
       <c r="C786" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16746,7 +16715,7 @@
         <v>1028</v>
       </c>
       <c r="C787" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16755,7 +16724,7 @@
         <v>1068</v>
       </c>
       <c r="C788" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16764,7 +16733,7 @@
         <v>1106</v>
       </c>
       <c r="C789" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16773,7 +16742,7 @@
         <v>1359</v>
       </c>
       <c r="C790" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16782,7 +16751,7 @@
         <v>1680</v>
       </c>
       <c r="C791" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16791,7 +16760,7 @@
         <v>1092</v>
       </c>
       <c r="C792" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16800,7 +16769,7 @@
         <v>1152</v>
       </c>
       <c r="C793" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16809,7 +16778,7 @@
         <v>1631</v>
       </c>
       <c r="C794" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16818,7 +16787,7 @@
         <v>1000</v>
       </c>
       <c r="C795" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16827,7 +16796,7 @@
         <v>1229</v>
       </c>
       <c r="C796" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16836,7 +16805,7 @@
         <v>1353</v>
       </c>
       <c r="C797" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16845,7 +16814,7 @@
         <v>1067</v>
       </c>
       <c r="C798" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16854,7 +16823,7 @@
         <v>1595</v>
       </c>
       <c r="C799" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16863,7 +16832,7 @@
         <v>1031</v>
       </c>
       <c r="C800" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16872,7 +16841,7 @@
         <v>1367</v>
       </c>
       <c r="C801" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16881,7 +16850,7 @@
         <v>1904</v>
       </c>
       <c r="C802" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16890,7 +16859,7 @@
         <v>1246</v>
       </c>
       <c r="C803" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16899,7 +16868,7 @@
         <v>1255</v>
       </c>
       <c r="C804" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16908,7 +16877,7 @@
         <v>1659</v>
       </c>
       <c r="C805" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16917,7 +16886,7 @@
         <v>1180</v>
       </c>
       <c r="C806" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16926,7 +16895,7 @@
         <v>1555</v>
       </c>
       <c r="C807" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16935,7 +16904,7 @@
         <v>1607</v>
       </c>
       <c r="C808" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16944,7 +16913,7 @@
         <v>1697</v>
       </c>
       <c r="C809" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16953,7 +16922,7 @@
         <v>1903</v>
       </c>
       <c r="C810" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16962,7 +16931,7 @@
         <v>1496</v>
       </c>
       <c r="C811" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16971,7 +16940,7 @@
         <v>1012</v>
       </c>
       <c r="C812" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16980,7 +16949,7 @@
         <v>1674</v>
       </c>
       <c r="C813" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16989,7 +16958,7 @@
         <v>1234</v>
       </c>
       <c r="C814" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16998,7 +16967,7 @@
         <v>1779</v>
       </c>
       <c r="C815" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17007,7 +16976,7 @@
         <v>1448</v>
       </c>
       <c r="C816" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17016,7 +16985,7 @@
         <v>1693</v>
       </c>
       <c r="C817" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17025,7 +16994,7 @@
         <v>1260</v>
       </c>
       <c r="C818" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17034,7 +17003,7 @@
         <v>1097</v>
       </c>
       <c r="C819" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17043,7 +17012,7 @@
         <v>1525</v>
       </c>
       <c r="C820" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17052,7 +17021,7 @@
         <v>1145</v>
       </c>
       <c r="C821" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17061,7 +17030,7 @@
         <v>1691</v>
       </c>
       <c r="C822" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17070,7 +17039,7 @@
         <v>1712</v>
       </c>
       <c r="C823" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17079,7 +17048,7 @@
         <v>1494</v>
       </c>
       <c r="C824" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17088,7 +17057,7 @@
         <v>1402</v>
       </c>
       <c r="C825" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17097,7 +17066,7 @@
         <v>1805</v>
       </c>
       <c r="C826" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17106,7 +17075,7 @@
         <v>1301</v>
       </c>
       <c r="C827" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17115,7 +17084,7 @@
         <v>1328</v>
       </c>
       <c r="C828" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17124,7 +17093,7 @@
         <v>1112</v>
       </c>
       <c r="C829" t="b">
-        <f t="shared" ref="C829:C892" si="14">+ISNUMBER(B829)</f>
+        <f t="shared" ref="C829:C892" si="17">+ISNUMBER(B829)</f>
         <v>0</v>
       </c>
     </row>
@@ -17133,7 +17102,7 @@
         <v>1599</v>
       </c>
       <c r="C830" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17142,7 +17111,7 @@
         <v>1463</v>
       </c>
       <c r="C831" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17151,7 +17120,7 @@
         <v>1337</v>
       </c>
       <c r="C832" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17160,7 +17129,7 @@
         <v>1113</v>
       </c>
       <c r="C833" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17169,7 +17138,7 @@
         <v>1101</v>
       </c>
       <c r="C834" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17178,7 +17147,7 @@
         <v>1603</v>
       </c>
       <c r="C835" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17187,7 +17156,7 @@
         <v>1209</v>
       </c>
       <c r="C836" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17196,7 +17165,7 @@
         <v>1876</v>
       </c>
       <c r="C837" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17205,7 +17174,7 @@
         <v>1888</v>
       </c>
       <c r="C838" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17214,7 +17183,7 @@
         <v>1386</v>
       </c>
       <c r="C839" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17223,7 +17192,7 @@
         <v>1131</v>
       </c>
       <c r="C840" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17232,7 +17201,7 @@
         <v>1553</v>
       </c>
       <c r="C841" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17241,7 +17210,7 @@
         <v>1431</v>
       </c>
       <c r="C842" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17250,7 +17219,7 @@
         <v>1812</v>
       </c>
       <c r="C843" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17259,7 +17228,7 @@
         <v>1192</v>
       </c>
       <c r="C844" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17268,7 +17237,7 @@
         <v>1191</v>
       </c>
       <c r="C845" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17277,7 +17246,7 @@
         <v>1382</v>
       </c>
       <c r="C846" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17286,7 +17255,7 @@
         <v>1035</v>
       </c>
       <c r="C847" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17295,7 +17264,7 @@
         <v>1711</v>
       </c>
       <c r="C848" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17304,7 +17273,7 @@
         <v>1001</v>
       </c>
       <c r="C849" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17313,7 +17282,7 @@
         <v>1156</v>
       </c>
       <c r="C850" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17322,7 +17291,7 @@
         <v>1785</v>
       </c>
       <c r="C851" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17331,7 +17300,7 @@
         <v>1055</v>
       </c>
       <c r="C852" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17340,7 +17309,7 @@
         <v>1536</v>
       </c>
       <c r="C853" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17349,7 +17318,7 @@
         <v>1722</v>
       </c>
       <c r="C854" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17358,7 +17327,7 @@
         <v>1292</v>
       </c>
       <c r="C855" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17367,7 +17336,7 @@
         <v>1790</v>
       </c>
       <c r="C856" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17376,7 +17345,7 @@
         <v>1175</v>
       </c>
       <c r="C857" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17385,7 +17354,7 @@
         <v>1864</v>
       </c>
       <c r="C858" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17394,7 +17363,7 @@
         <v>1060</v>
       </c>
       <c r="C859" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17403,7 +17372,7 @@
         <v>1207</v>
       </c>
       <c r="C860" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17412,7 +17381,7 @@
         <v>1755</v>
       </c>
       <c r="C861" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17421,7 +17390,7 @@
         <v>1724</v>
       </c>
       <c r="C862" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17430,7 +17399,7 @@
         <v>1689</v>
       </c>
       <c r="C863" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17439,7 +17408,7 @@
         <v>1105</v>
       </c>
       <c r="C864" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17448,7 +17417,7 @@
         <v>1151</v>
       </c>
       <c r="C865" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17457,7 +17426,7 @@
         <v>1399</v>
       </c>
       <c r="C866" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17466,7 +17435,7 @@
         <v>1723</v>
       </c>
       <c r="C867" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17475,7 +17444,7 @@
         <v>1228</v>
       </c>
       <c r="C868" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17484,7 +17453,7 @@
         <v>1213</v>
       </c>
       <c r="C869" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17493,7 +17462,7 @@
         <v>1726</v>
       </c>
       <c r="C870" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17502,7 +17471,7 @@
         <v>1010</v>
       </c>
       <c r="C871" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17511,7 +17480,7 @@
         <v>1732</v>
       </c>
       <c r="C872" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17520,7 +17489,7 @@
         <v>1913</v>
       </c>
       <c r="C873" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17529,7 +17498,7 @@
         <v>1498</v>
       </c>
       <c r="C874" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17538,7 +17507,7 @@
         <v>1610</v>
       </c>
       <c r="C875" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17547,7 +17516,7 @@
         <v>1410</v>
       </c>
       <c r="C876" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17556,7 +17525,7 @@
         <v>1788</v>
       </c>
       <c r="C877" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17565,7 +17534,7 @@
         <v>1242</v>
       </c>
       <c r="C878" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17574,7 +17543,7 @@
         <v>1396</v>
       </c>
       <c r="C879" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17583,7 +17552,7 @@
         <v>1737</v>
       </c>
       <c r="C880" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17592,7 +17561,7 @@
         <v>1740</v>
       </c>
       <c r="C881" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17601,7 +17570,7 @@
         <v>1941</v>
       </c>
       <c r="C882" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17610,7 +17579,7 @@
         <v>1752</v>
       </c>
       <c r="C883" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17619,7 +17588,7 @@
         <v>1116</v>
       </c>
       <c r="C884" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17628,7 +17597,7 @@
         <v>1780</v>
       </c>
       <c r="C885" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17637,7 +17606,7 @@
         <v>1216</v>
       </c>
       <c r="C886" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17646,7 +17615,7 @@
         <v>1119</v>
       </c>
       <c r="C887" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17655,7 +17624,7 @@
         <v>1869</v>
       </c>
       <c r="C888" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17664,7 +17633,7 @@
         <v>1267</v>
       </c>
       <c r="C889" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17673,7 +17642,7 @@
         <v>1300</v>
       </c>
       <c r="C890" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17682,7 +17651,7 @@
         <v>1746</v>
       </c>
       <c r="C891" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17691,7 +17660,7 @@
         <v>1810</v>
       </c>
       <c r="C892" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17700,7 +17669,7 @@
         <v>1585</v>
       </c>
       <c r="C893" t="b">
-        <f t="shared" ref="C893:C956" si="15">+ISNUMBER(B893)</f>
+        <f t="shared" ref="C893:C956" si="18">+ISNUMBER(B893)</f>
         <v>0</v>
       </c>
     </row>
@@ -17709,7 +17678,7 @@
         <v>1459</v>
       </c>
       <c r="C894" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17718,7 +17687,7 @@
         <v>1352</v>
       </c>
       <c r="C895" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17727,7 +17696,7 @@
         <v>1467</v>
       </c>
       <c r="C896" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17736,7 +17705,7 @@
         <v>1761</v>
       </c>
       <c r="C897" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17745,7 +17714,7 @@
         <v>1461</v>
       </c>
       <c r="C898" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17754,7 +17723,7 @@
         <v>1935</v>
       </c>
       <c r="C899" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17763,7 +17732,7 @@
         <v>1365</v>
       </c>
       <c r="C900" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17772,7 +17741,7 @@
         <v>1469</v>
       </c>
       <c r="C901" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17781,7 +17750,7 @@
         <v>1351</v>
       </c>
       <c r="C902" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17790,7 +17759,7 @@
         <v>1760</v>
       </c>
       <c r="C903" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17799,7 +17768,7 @@
         <v>1318</v>
       </c>
       <c r="C904" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17808,7 +17777,7 @@
         <v>1500</v>
       </c>
       <c r="C905" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17817,7 +17786,7 @@
         <v>1730</v>
       </c>
       <c r="C906" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17826,7 +17795,7 @@
         <v>1358</v>
       </c>
       <c r="C907" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17835,7 +17804,7 @@
         <v>1274</v>
       </c>
       <c r="C908" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17844,7 +17813,7 @@
         <v>1839</v>
       </c>
       <c r="C909" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17853,7 +17822,7 @@
         <v>1830</v>
       </c>
       <c r="C910" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17862,7 +17831,7 @@
         <v>1002</v>
       </c>
       <c r="C911" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17871,7 +17840,7 @@
         <v>1916</v>
       </c>
       <c r="C912" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17880,7 +17849,7 @@
         <v>1179</v>
       </c>
       <c r="C913" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17889,7 +17858,7 @@
         <v>1699</v>
       </c>
       <c r="C914" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17898,7 +17867,7 @@
         <v>1816</v>
       </c>
       <c r="C915" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17907,7 +17876,7 @@
         <v>1058</v>
       </c>
       <c r="C916" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17916,7 +17885,7 @@
         <v>1050</v>
       </c>
       <c r="C917" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17925,7 +17894,7 @@
         <v>1074</v>
       </c>
       <c r="C918" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17934,7 +17903,7 @@
         <v>1346</v>
       </c>
       <c r="C919" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17943,7 +17912,7 @@
         <v>1129</v>
       </c>
       <c r="C920" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17952,7 +17921,7 @@
         <v>1612</v>
       </c>
       <c r="C921" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17961,7 +17930,7 @@
         <v>1701</v>
       </c>
       <c r="C922" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17970,7 +17939,7 @@
         <v>1385</v>
       </c>
       <c r="C923" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17979,7 +17948,7 @@
         <v>1022</v>
       </c>
       <c r="C924" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17988,7 +17957,7 @@
         <v>1796</v>
       </c>
       <c r="C925" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17997,7 +17966,7 @@
         <v>1411</v>
       </c>
       <c r="C926" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18006,7 +17975,7 @@
         <v>1606</v>
       </c>
       <c r="C927" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18015,7 +17984,7 @@
         <v>1121</v>
       </c>
       <c r="C928" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18024,7 +17993,7 @@
         <v>1336</v>
       </c>
       <c r="C929" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18033,7 +18002,7 @@
         <v>1664</v>
       </c>
       <c r="C930" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18042,7 +18011,7 @@
         <v>1613</v>
       </c>
       <c r="C931" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18051,7 +18020,7 @@
         <v>1567</v>
       </c>
       <c r="C932" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18060,7 +18029,7 @@
         <v>1841</v>
       </c>
       <c r="C933" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18069,7 +18038,7 @@
         <v>1484</v>
       </c>
       <c r="C934" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18078,7 +18047,7 @@
         <v>1429</v>
       </c>
       <c r="C935" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18087,7 +18056,7 @@
         <v>1894</v>
       </c>
       <c r="C936" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18096,7 +18065,7 @@
         <v>1736</v>
       </c>
       <c r="C937" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18105,7 +18074,7 @@
         <v>1109</v>
       </c>
       <c r="C938" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18114,7 +18083,7 @@
         <v>1557</v>
       </c>
       <c r="C939" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18123,7 +18092,7 @@
         <v>1783</v>
       </c>
       <c r="C940" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18132,7 +18101,7 @@
         <v>1014</v>
       </c>
       <c r="C941" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18141,7 +18110,7 @@
         <v>1832</v>
       </c>
       <c r="C942" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18150,7 +18119,7 @@
         <v>1815</v>
       </c>
       <c r="C943" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18159,7 +18128,7 @@
         <v>1021</v>
       </c>
       <c r="C944" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18168,7 +18137,7 @@
         <v>1378</v>
       </c>
       <c r="C945" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18177,7 +18146,7 @@
         <v>1210</v>
       </c>
       <c r="C946" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18186,7 +18155,7 @@
         <v>1867</v>
       </c>
       <c r="C947" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18195,7 +18164,7 @@
         <v>1343</v>
       </c>
       <c r="C948" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18204,7 +18173,7 @@
         <v>1547</v>
       </c>
       <c r="C949" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18213,7 +18182,7 @@
         <v>999</v>
       </c>
       <c r="C950" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18222,7 +18191,7 @@
         <v>1604</v>
       </c>
       <c r="C951" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18231,7 +18200,7 @@
         <v>1507</v>
       </c>
       <c r="C952" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18240,7 +18209,7 @@
         <v>1890</v>
       </c>
       <c r="C953" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18249,7 +18218,7 @@
         <v>1146</v>
       </c>
       <c r="C954" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18258,7 +18227,7 @@
         <v>1943</v>
       </c>
       <c r="C955" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18267,7 +18236,7 @@
         <v>1033</v>
       </c>
       <c r="C956" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18276,7 +18245,7 @@
         <v>1073</v>
       </c>
       <c r="C957" t="b">
-        <f t="shared" ref="C957:C1020" si="16">+ISNUMBER(B957)</f>
+        <f t="shared" ref="C957:C1020" si="19">+ISNUMBER(B957)</f>
         <v>0</v>
       </c>
     </row>
@@ -18285,7 +18254,7 @@
         <v>1493</v>
       </c>
       <c r="C958" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18294,7 +18263,7 @@
         <v>1387</v>
       </c>
       <c r="C959" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18303,7 +18272,7 @@
         <v>1517</v>
       </c>
       <c r="C960" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18312,7 +18281,7 @@
         <v>1728</v>
       </c>
       <c r="C961" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18321,7 +18290,7 @@
         <v>1492</v>
       </c>
       <c r="C962" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18330,7 +18299,7 @@
         <v>1838</v>
       </c>
       <c r="C963" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18339,7 +18308,7 @@
         <v>1938</v>
       </c>
       <c r="C964" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18348,7 +18317,7 @@
         <v>1698</v>
       </c>
       <c r="C965" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18357,7 +18326,7 @@
         <v>1214</v>
       </c>
       <c r="C966" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18366,7 +18335,7 @@
         <v>1705</v>
       </c>
       <c r="C967" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18375,7 +18344,7 @@
         <v>1731</v>
       </c>
       <c r="C968" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18384,7 +18353,7 @@
         <v>1601</v>
       </c>
       <c r="C969" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18393,7 +18362,7 @@
         <v>1592</v>
       </c>
       <c r="C970" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18402,7 +18371,7 @@
         <v>1251</v>
       </c>
       <c r="C971" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18411,7 +18380,7 @@
         <v>1404</v>
       </c>
       <c r="C972" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18420,7 +18389,7 @@
         <v>1846</v>
       </c>
       <c r="C973" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18429,7 +18398,7 @@
         <v>1188</v>
       </c>
       <c r="C974" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18438,7 +18407,7 @@
         <v>1403</v>
       </c>
       <c r="C975" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18447,7 +18416,7 @@
         <v>1645</v>
       </c>
       <c r="C976" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18456,7 +18425,7 @@
         <v>1102</v>
       </c>
       <c r="C977" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18465,7 +18434,7 @@
         <v>1900</v>
       </c>
       <c r="C978" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18474,7 +18443,7 @@
         <v>1473</v>
       </c>
       <c r="C979" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18483,7 +18452,7 @@
         <v>1104</v>
       </c>
       <c r="C980" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18492,7 +18461,7 @@
         <v>1370</v>
       </c>
       <c r="C981" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18501,7 +18470,7 @@
         <v>1573</v>
       </c>
       <c r="C982" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18510,7 +18479,7 @@
         <v>1874</v>
       </c>
       <c r="C983" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18519,7 +18488,7 @@
         <v>1265</v>
       </c>
       <c r="C984" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18528,7 +18497,7 @@
         <v>1834</v>
       </c>
       <c r="C985" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18537,7 +18506,7 @@
         <v>1026</v>
       </c>
       <c r="C986" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18546,7 +18515,7 @@
         <v>1003</v>
       </c>
       <c r="C987" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18555,7 +18524,7 @@
         <v>1516</v>
       </c>
       <c r="C988" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18564,7 +18533,7 @@
         <v>526</v>
       </c>
       <c r="C989" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18573,7 +18542,7 @@
         <v>1137</v>
       </c>
       <c r="C990" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18582,7 +18551,7 @@
         <v>1490</v>
       </c>
       <c r="C991" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18591,7 +18560,7 @@
         <v>1880</v>
       </c>
       <c r="C992" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18600,7 +18569,7 @@
         <v>1504</v>
       </c>
       <c r="C993" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18609,7 +18578,7 @@
         <v>1643</v>
       </c>
       <c r="C994" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18618,7 +18587,7 @@
         <v>1632</v>
       </c>
       <c r="C995" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18627,7 +18596,7 @@
         <v>1310</v>
       </c>
       <c r="C996" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18636,7 +18605,7 @@
         <v>1230</v>
       </c>
       <c r="C997" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18645,7 +18614,7 @@
         <v>1733</v>
       </c>
       <c r="C998" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18654,7 +18623,7 @@
         <v>1063</v>
       </c>
       <c r="C999" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18663,7 +18632,7 @@
         <v>1478</v>
       </c>
       <c r="C1000" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18672,7 +18641,7 @@
         <v>1466</v>
       </c>
       <c r="C1001" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18681,7 +18650,7 @@
         <v>1306</v>
       </c>
       <c r="C1002" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18690,7 +18659,7 @@
         <v>1126</v>
       </c>
       <c r="C1003" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18699,7 +18668,7 @@
         <v>1297</v>
       </c>
       <c r="C1004" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18708,7 +18677,7 @@
         <v>1256</v>
       </c>
       <c r="C1005" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18717,7 +18686,7 @@
         <v>1793</v>
       </c>
       <c r="C1006" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18726,7 +18695,7 @@
         <v>1806</v>
       </c>
       <c r="C1007" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18735,7 +18704,7 @@
         <v>1798</v>
       </c>
       <c r="C1008" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18744,7 +18713,7 @@
         <v>1446</v>
       </c>
       <c r="C1009" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18753,7 +18722,7 @@
         <v>1772</v>
       </c>
       <c r="C1010" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18762,7 +18731,7 @@
         <v>1550</v>
       </c>
       <c r="C1011" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18771,7 +18740,7 @@
         <v>1140</v>
       </c>
       <c r="C1012" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18780,7 +18749,7 @@
         <v>1614</v>
       </c>
       <c r="C1013" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18789,7 +18758,7 @@
         <v>1803</v>
       </c>
       <c r="C1014" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18798,7 +18767,7 @@
         <v>1529</v>
       </c>
       <c r="C1015" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18807,7 +18776,7 @@
         <v>1616</v>
       </c>
       <c r="C1016" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18816,7 +18785,7 @@
         <v>1057</v>
       </c>
       <c r="C1017" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18825,7 +18794,7 @@
         <v>1115</v>
       </c>
       <c r="C1018" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18834,7 +18803,7 @@
         <v>1062</v>
       </c>
       <c r="C1019" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18843,7 +18812,7 @@
         <v>1094</v>
       </c>
       <c r="C1020" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18852,7 +18821,7 @@
         <v>1873</v>
       </c>
       <c r="C1021" t="b">
-        <f t="shared" ref="C1021:C1084" si="17">+ISNUMBER(B1021)</f>
+        <f t="shared" ref="C1021:C1084" si="20">+ISNUMBER(B1021)</f>
         <v>0</v>
       </c>
     </row>
@@ -18861,7 +18830,7 @@
         <v>1090</v>
       </c>
       <c r="C1022" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18870,7 +18839,7 @@
         <v>1660</v>
       </c>
       <c r="C1023" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18879,7 +18848,7 @@
         <v>1673</v>
       </c>
       <c r="C1024" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18888,7 +18857,7 @@
         <v>1501</v>
       </c>
       <c r="C1025" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18897,7 +18866,7 @@
         <v>1340</v>
       </c>
       <c r="C1026" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18906,7 +18875,7 @@
         <v>1150</v>
       </c>
       <c r="C1027" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18915,7 +18884,7 @@
         <v>1064</v>
       </c>
       <c r="C1028" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18924,7 +18893,7 @@
         <v>1791</v>
       </c>
       <c r="C1029" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18933,7 +18902,7 @@
         <v>1438</v>
       </c>
       <c r="C1030" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18942,7 +18911,7 @@
         <v>1618</v>
       </c>
       <c r="C1031" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18951,7 +18920,7 @@
         <v>1624</v>
       </c>
       <c r="C1032" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18960,7 +18929,7 @@
         <v>1581</v>
       </c>
       <c r="C1033" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18969,7 +18938,7 @@
         <v>1836</v>
       </c>
       <c r="C1034" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18978,7 +18947,7 @@
         <v>1449</v>
       </c>
       <c r="C1035" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18987,7 +18956,7 @@
         <v>1038</v>
       </c>
       <c r="C1036" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18996,7 +18965,7 @@
         <v>1185</v>
       </c>
       <c r="C1037" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19005,7 +18974,7 @@
         <v>1758</v>
       </c>
       <c r="C1038" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19014,7 +18983,7 @@
         <v>1217</v>
       </c>
       <c r="C1039" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19023,7 +18992,7 @@
         <v>1762</v>
       </c>
       <c r="C1040" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19032,7 +19001,7 @@
         <v>1789</v>
       </c>
       <c r="C1041" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19041,7 +19010,7 @@
         <v>1203</v>
       </c>
       <c r="C1042" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19050,7 +19019,7 @@
         <v>1897</v>
       </c>
       <c r="C1043" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19059,7 +19028,7 @@
         <v>1472</v>
       </c>
       <c r="C1044" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19068,7 +19037,7 @@
         <v>1947</v>
       </c>
       <c r="C1045" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19077,7 +19046,7 @@
         <v>1842</v>
       </c>
       <c r="C1046" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19086,7 +19055,7 @@
         <v>1072</v>
       </c>
       <c r="C1047" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19095,7 +19064,7 @@
         <v>1143</v>
       </c>
       <c r="C1048" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19104,7 +19073,7 @@
         <v>1588</v>
       </c>
       <c r="C1049" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19113,7 +19082,7 @@
         <v>1391</v>
       </c>
       <c r="C1050" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19122,7 +19091,7 @@
         <v>1208</v>
       </c>
       <c r="C1051" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19131,7 +19100,7 @@
         <v>1667</v>
       </c>
       <c r="C1052" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19140,7 +19109,7 @@
         <v>1324</v>
       </c>
       <c r="C1053" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19149,7 +19118,7 @@
         <v>1786</v>
       </c>
       <c r="C1054" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19158,7 +19127,7 @@
         <v>1927</v>
       </c>
       <c r="C1055" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19167,7 +19136,7 @@
         <v>1407</v>
       </c>
       <c r="C1056" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19176,7 +19145,7 @@
         <v>1743</v>
       </c>
       <c r="C1057" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19185,7 +19154,7 @@
         <v>1206</v>
       </c>
       <c r="C1058" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19194,7 +19163,7 @@
         <v>1685</v>
       </c>
       <c r="C1059" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19203,7 +19172,7 @@
         <v>1414</v>
       </c>
       <c r="C1060" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19212,7 +19181,7 @@
         <v>1319</v>
       </c>
       <c r="C1061" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19221,7 +19190,7 @@
         <v>1579</v>
       </c>
       <c r="C1062" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19230,7 +19199,7 @@
         <v>1470</v>
       </c>
       <c r="C1063" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19239,7 +19208,7 @@
         <v>1825</v>
       </c>
       <c r="C1064" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19248,7 +19217,7 @@
         <v>1069</v>
       </c>
       <c r="C1065" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19257,7 +19226,7 @@
         <v>1315</v>
       </c>
       <c r="C1066" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19266,7 +19235,7 @@
         <v>1718</v>
       </c>
       <c r="C1067" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19275,7 +19244,7 @@
         <v>1316</v>
       </c>
       <c r="C1068" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19284,7 +19253,7 @@
         <v>1444</v>
       </c>
       <c r="C1069" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19293,7 +19262,7 @@
         <v>1914</v>
       </c>
       <c r="C1070" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19302,7 +19271,7 @@
         <v>1583</v>
       </c>
       <c r="C1071" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19311,7 +19280,7 @@
         <v>1345</v>
       </c>
       <c r="C1072" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19320,7 +19289,7 @@
         <v>1776</v>
       </c>
       <c r="C1073" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19329,7 +19298,7 @@
         <v>1840</v>
       </c>
       <c r="C1074" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19338,7 +19307,7 @@
         <v>1650</v>
       </c>
       <c r="C1075" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19347,7 +19316,7 @@
         <v>1679</v>
       </c>
       <c r="C1076" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19356,7 +19325,7 @@
         <v>1910</v>
       </c>
       <c r="C1077" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19365,7 +19334,7 @@
         <v>1870</v>
       </c>
       <c r="C1078" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19374,7 +19343,7 @@
         <v>1355</v>
       </c>
       <c r="C1079" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19383,7 +19352,7 @@
         <v>1162</v>
       </c>
       <c r="C1080" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19392,7 +19361,7 @@
         <v>1139</v>
       </c>
       <c r="C1081" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19401,7 +19370,7 @@
         <v>1454</v>
       </c>
       <c r="C1082" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19410,7 +19379,7 @@
         <v>1425</v>
       </c>
       <c r="C1083" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19419,7 +19388,7 @@
         <v>1164</v>
       </c>
       <c r="C1084" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -19428,7 +19397,7 @@
         <v>1224</v>
       </c>
       <c r="C1085" t="b">
-        <f t="shared" ref="C1085:C1148" si="18">+ISNUMBER(B1085)</f>
+        <f t="shared" ref="C1085:C1148" si="21">+ISNUMBER(B1085)</f>
         <v>0</v>
       </c>
     </row>
@@ -19437,7 +19406,7 @@
         <v>1696</v>
       </c>
       <c r="C1086" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19446,7 +19415,7 @@
         <v>1290</v>
       </c>
       <c r="C1087" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19455,7 +19424,7 @@
         <v>1716</v>
       </c>
       <c r="C1088" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19464,7 +19433,7 @@
         <v>1866</v>
       </c>
       <c r="C1089" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19473,7 +19442,7 @@
         <v>1569</v>
       </c>
       <c r="C1090" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19482,7 +19451,7 @@
         <v>1591</v>
       </c>
       <c r="C1091" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19491,7 +19460,7 @@
         <v>1865</v>
       </c>
       <c r="C1092" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19500,7 +19469,7 @@
         <v>1141</v>
       </c>
       <c r="C1093" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19509,7 +19478,7 @@
         <v>1901</v>
       </c>
       <c r="C1094" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19518,7 +19487,7 @@
         <v>1287</v>
       </c>
       <c r="C1095" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19527,7 +19496,7 @@
         <v>1011</v>
       </c>
       <c r="C1096" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19536,7 +19505,7 @@
         <v>1218</v>
       </c>
       <c r="C1097" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19545,7 +19514,7 @@
         <v>1421</v>
       </c>
       <c r="C1098" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19554,7 +19523,7 @@
         <v>1930</v>
       </c>
       <c r="C1099" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19563,7 +19532,7 @@
         <v>1605</v>
       </c>
       <c r="C1100" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19572,7 +19541,7 @@
         <v>1875</v>
       </c>
       <c r="C1101" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19581,7 +19550,7 @@
         <v>1176</v>
       </c>
       <c r="C1102" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19590,7 +19559,7 @@
         <v>1707</v>
       </c>
       <c r="C1103" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19599,7 +19568,7 @@
         <v>1598</v>
       </c>
       <c r="C1104" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19608,7 +19577,7 @@
         <v>1398</v>
       </c>
       <c r="C1105" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19617,7 +19586,7 @@
         <v>1587</v>
       </c>
       <c r="C1106" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19626,7 +19595,7 @@
         <v>1233</v>
       </c>
       <c r="C1107" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19635,7 +19604,7 @@
         <v>1177</v>
       </c>
       <c r="C1108" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19644,7 +19613,7 @@
         <v>1356</v>
       </c>
       <c r="C1109" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19653,7 +19622,7 @@
         <v>1837</v>
       </c>
       <c r="C1110" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19662,7 +19631,7 @@
         <v>1533</v>
       </c>
       <c r="C1111" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19671,7 +19640,7 @@
         <v>1354</v>
       </c>
       <c r="C1112" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19680,7 +19649,7 @@
         <v>1368</v>
       </c>
       <c r="C1113" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19689,7 +19658,7 @@
         <v>1544</v>
       </c>
       <c r="C1114" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19698,7 +19667,7 @@
         <v>1388</v>
       </c>
       <c r="C1115" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19707,7 +19676,7 @@
         <v>1763</v>
       </c>
       <c r="C1116" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19716,7 +19685,7 @@
         <v>1096</v>
       </c>
       <c r="C1117" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19725,7 +19694,7 @@
         <v>1103</v>
       </c>
       <c r="C1118" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19734,7 +19703,7 @@
         <v>1727</v>
       </c>
       <c r="C1119" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19743,7 +19712,7 @@
         <v>1898</v>
       </c>
       <c r="C1120" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19752,7 +19721,7 @@
         <v>1241</v>
       </c>
       <c r="C1121" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19761,7 +19730,7 @@
         <v>1781</v>
       </c>
       <c r="C1122" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19770,7 +19739,7 @@
         <v>1906</v>
       </c>
       <c r="C1123" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19779,7 +19748,7 @@
         <v>1851</v>
       </c>
       <c r="C1124" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19788,7 +19757,7 @@
         <v>1155</v>
       </c>
       <c r="C1125" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19797,7 +19766,7 @@
         <v>1479</v>
       </c>
       <c r="C1126" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19806,7 +19775,7 @@
         <v>1523</v>
       </c>
       <c r="C1127" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19815,7 +19784,7 @@
         <v>1861</v>
       </c>
       <c r="C1128" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19824,7 +19793,7 @@
         <v>1320</v>
       </c>
       <c r="C1129" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19833,7 +19802,7 @@
         <v>1061</v>
       </c>
       <c r="C1130" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19842,7 +19811,7 @@
         <v>1868</v>
       </c>
       <c r="C1131" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19851,7 +19820,7 @@
         <v>1200</v>
       </c>
       <c r="C1132" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19860,7 +19829,7 @@
         <v>1512</v>
       </c>
       <c r="C1133" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19869,7 +19838,7 @@
         <v>1824</v>
       </c>
       <c r="C1134" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19878,7 +19847,7 @@
         <v>1183</v>
       </c>
       <c r="C1135" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19887,7 +19856,7 @@
         <v>1455</v>
       </c>
       <c r="C1136" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19896,7 +19865,7 @@
         <v>1226</v>
       </c>
       <c r="C1137" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19905,7 +19874,7 @@
         <v>1298</v>
       </c>
       <c r="C1138" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19914,7 +19883,7 @@
         <v>1163</v>
       </c>
       <c r="C1139" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19923,7 +19892,7 @@
         <v>1238</v>
       </c>
       <c r="C1140" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19932,7 +19901,7 @@
         <v>1326</v>
       </c>
       <c r="C1141" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19941,7 +19910,7 @@
         <v>1406</v>
       </c>
       <c r="C1142" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19950,7 +19919,7 @@
         <v>1451</v>
       </c>
       <c r="C1143" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19959,7 +19928,7 @@
         <v>1912</v>
       </c>
       <c r="C1144" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19968,7 +19937,7 @@
         <v>1435</v>
       </c>
       <c r="C1145" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19977,7 +19946,7 @@
         <v>1221</v>
       </c>
       <c r="C1146" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19986,7 +19955,7 @@
         <v>1220</v>
       </c>
       <c r="C1147" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19995,7 +19964,7 @@
         <v>1577</v>
       </c>
       <c r="C1148" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -20004,7 +19973,7 @@
         <v>1845</v>
       </c>
       <c r="C1149" t="b">
-        <f t="shared" ref="C1149:C1212" si="19">+ISNUMBER(B1149)</f>
+        <f t="shared" ref="C1149:C1212" si="22">+ISNUMBER(B1149)</f>
         <v>0</v>
       </c>
     </row>
@@ -20013,7 +19982,7 @@
         <v>1125</v>
       </c>
       <c r="C1150" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20022,7 +19991,7 @@
         <v>1077</v>
       </c>
       <c r="C1151" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20031,7 +20000,7 @@
         <v>1044</v>
       </c>
       <c r="C1152" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20040,7 +20009,7 @@
         <v>1261</v>
       </c>
       <c r="C1153" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20049,7 +20018,7 @@
         <v>1205</v>
       </c>
       <c r="C1154" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20058,7 +20027,7 @@
         <v>1417</v>
       </c>
       <c r="C1155" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20067,7 +20036,7 @@
         <v>1520</v>
       </c>
       <c r="C1156" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20076,7 +20045,7 @@
         <v>1329</v>
       </c>
       <c r="C1157" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20085,7 +20054,7 @@
         <v>1936</v>
       </c>
       <c r="C1158" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20094,7 +20063,7 @@
         <v>1056</v>
       </c>
       <c r="C1159" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20103,7 +20072,7 @@
         <v>1802</v>
       </c>
       <c r="C1160" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20112,7 +20081,7 @@
         <v>1844</v>
       </c>
       <c r="C1161" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20121,7 +20090,7 @@
         <v>1416</v>
       </c>
       <c r="C1162" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20130,7 +20099,7 @@
         <v>1764</v>
       </c>
       <c r="C1163" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20139,7 +20108,7 @@
         <v>1165</v>
       </c>
       <c r="C1164" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20148,7 +20117,7 @@
         <v>1173</v>
       </c>
       <c r="C1165" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20157,7 +20126,7 @@
         <v>1522</v>
       </c>
       <c r="C1166" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20166,7 +20135,7 @@
         <v>1714</v>
       </c>
       <c r="C1167" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20175,7 +20144,7 @@
         <v>1393</v>
       </c>
       <c r="C1168" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20184,7 +20153,7 @@
         <v>1784</v>
       </c>
       <c r="C1169" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20193,7 +20162,7 @@
         <v>1653</v>
       </c>
       <c r="C1170" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20202,7 +20171,7 @@
         <v>1204</v>
       </c>
       <c r="C1171" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20211,7 +20180,7 @@
         <v>1474</v>
       </c>
       <c r="C1172" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20220,7 +20189,7 @@
         <v>1071</v>
       </c>
       <c r="C1173" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20229,7 +20198,7 @@
         <v>1528</v>
       </c>
       <c r="C1174" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20238,7 +20207,7 @@
         <v>1574</v>
       </c>
       <c r="C1175" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20247,7 +20216,7 @@
         <v>1768</v>
       </c>
       <c r="C1176" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20256,7 +20225,7 @@
         <v>1070</v>
       </c>
       <c r="C1177" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20265,7 +20234,7 @@
         <v>1657</v>
       </c>
       <c r="C1178" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20274,7 +20243,7 @@
         <v>1682</v>
       </c>
       <c r="C1179" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20283,7 +20252,7 @@
         <v>1369</v>
       </c>
       <c r="C1180" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20292,7 +20261,7 @@
         <v>1521</v>
       </c>
       <c r="C1181" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20301,7 +20270,7 @@
         <v>1120</v>
       </c>
       <c r="C1182" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20310,7 +20279,7 @@
         <v>1937</v>
       </c>
       <c r="C1183" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20319,7 +20288,7 @@
         <v>1561</v>
       </c>
       <c r="C1184" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20328,7 +20297,7 @@
         <v>1940</v>
       </c>
       <c r="C1185" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20337,7 +20306,7 @@
         <v>1886</v>
       </c>
       <c r="C1186" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20346,7 +20315,7 @@
         <v>1394</v>
       </c>
       <c r="C1187" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20355,7 +20324,7 @@
         <v>1111</v>
       </c>
       <c r="C1188" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20364,7 +20333,7 @@
         <v>1878</v>
       </c>
       <c r="C1189" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20373,7 +20342,7 @@
         <v>1282</v>
       </c>
       <c r="C1190" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20382,7 +20351,7 @@
         <v>1225</v>
       </c>
       <c r="C1191" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20391,7 +20360,7 @@
         <v>1239</v>
       </c>
       <c r="C1192" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20400,7 +20369,7 @@
         <v>1687</v>
       </c>
       <c r="C1193" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20409,7 +20378,7 @@
         <v>1787</v>
       </c>
       <c r="C1194" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20418,7 +20387,7 @@
         <v>1428</v>
       </c>
       <c r="C1195" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20427,7 +20396,7 @@
         <v>1338</v>
       </c>
       <c r="C1196" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20436,7 +20405,7 @@
         <v>1822</v>
       </c>
       <c r="C1197" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20445,7 +20414,7 @@
         <v>1249</v>
       </c>
       <c r="C1198" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20454,7 +20423,7 @@
         <v>1051</v>
       </c>
       <c r="C1199" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20463,7 +20432,7 @@
         <v>1813</v>
       </c>
       <c r="C1200" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20472,7 +20441,7 @@
         <v>1491</v>
       </c>
       <c r="C1201" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20481,7 +20450,7 @@
         <v>1503</v>
       </c>
       <c r="C1202" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20490,7 +20459,7 @@
         <v>1556</v>
       </c>
       <c r="C1203" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20499,7 +20468,7 @@
         <v>1281</v>
       </c>
       <c r="C1204" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20508,7 +20477,7 @@
         <v>1477</v>
       </c>
       <c r="C1205" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20517,7 +20486,7 @@
         <v>1257</v>
       </c>
       <c r="C1206" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20526,7 +20495,7 @@
         <v>1024</v>
       </c>
       <c r="C1207" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20535,7 +20504,7 @@
         <v>1178</v>
       </c>
       <c r="C1208" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20544,7 +20513,7 @@
         <v>1458</v>
       </c>
       <c r="C1209" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20553,7 +20522,7 @@
         <v>1088</v>
       </c>
       <c r="C1210" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20562,7 +20531,7 @@
         <v>1859</v>
       </c>
       <c r="C1211" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20571,7 +20540,7 @@
         <v>1427</v>
       </c>
       <c r="C1212" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -20580,7 +20549,7 @@
         <v>1538</v>
       </c>
       <c r="C1213" t="b">
-        <f t="shared" ref="C1213:C1223" si="20">+ISNUMBER(B1213)</f>
+        <f t="shared" ref="C1213:C1223" si="23">+ISNUMBER(B1213)</f>
         <v>0</v>
       </c>
     </row>
@@ -20589,7 +20558,7 @@
         <v>1013</v>
       </c>
       <c r="C1214" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20598,7 +20567,7 @@
         <v>1195</v>
       </c>
       <c r="C1215" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20607,7 +20576,7 @@
         <v>1457</v>
       </c>
       <c r="C1216" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20616,7 +20585,7 @@
         <v>1908</v>
       </c>
       <c r="C1217" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20625,7 +20594,7 @@
         <v>1539</v>
       </c>
       <c r="C1218" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20634,7 +20603,7 @@
         <v>1649</v>
       </c>
       <c r="C1219" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20643,7 +20612,7 @@
         <v>1847</v>
       </c>
       <c r="C1220" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20652,7 +20621,7 @@
         <v>1169</v>
       </c>
       <c r="C1221" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20661,7 +20630,7 @@
         <v>1439</v>
       </c>
       <c r="C1222" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20670,7 +20639,7 @@
         <v>1594</v>
       </c>
       <c r="C1223" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>

--- a/base_data/dataExploration.xlsx
+++ b/base_data/dataExploration.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\DeepLearning-JN\cs224u\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFEB626-4AE5-444F-992A-835F186FB7EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F296D-D7FD-411A-B9A0-C0D36F449F3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="1" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="3" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
   </bookViews>
   <sheets>
     <sheet name="CRF-1" sheetId="1" r:id="rId1"/>
     <sheet name="CRF-2" sheetId="2" r:id="rId2"/>
-    <sheet name="SUMMARY STATISTICS" sheetId="8" r:id="rId3"/>
-    <sheet name="auxDistinctWords" sheetId="9" r:id="rId4"/>
-    <sheet name="MostCommonTokens-per-Label" sheetId="3" r:id="rId5"/>
-    <sheet name="trailing-dot" sheetId="6" r:id="rId6"/>
-    <sheet name="SuccessiveTokens-withSameLabel" sheetId="4" r:id="rId7"/>
-    <sheet name="aux" sheetId="5" r:id="rId8"/>
+    <sheet name="CRF-RNN" sheetId="10" r:id="rId3"/>
+    <sheet name="SUMMARY-RESULTS" sheetId="11" r:id="rId4"/>
+    <sheet name="SUMMARY STATISTICS" sheetId="8" r:id="rId5"/>
+    <sheet name="auxDistinctWords" sheetId="9" r:id="rId6"/>
+    <sheet name="MostCommonTokens-per-Label" sheetId="3" r:id="rId7"/>
+    <sheet name="trailing-dot" sheetId="6" r:id="rId8"/>
+    <sheet name="SuccessiveTokens-withSameLabel" sheetId="4" r:id="rId9"/>
+    <sheet name="aux" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">auxDistinctWords!$B$430:$C$1223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">auxDistinctWords!$B$430:$C$1223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1956">
   <si>
     <t>B-DATUM_VERBUECHERUNG</t>
   </si>
@@ -5888,6 +5890,21 @@
   </si>
   <si>
     <t>Total Distinct Non-Numbers</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>LSTM (1 hidd layer)</t>
+  </si>
+  <si>
+    <t>LSTM (1 hidd layer) w/ leading "B- / I-"</t>
+  </si>
+  <si>
+    <t>(NOTE: these 1st two results are different from above as we're now including "O" class in the numbers)</t>
   </si>
 </sst>
 </file>
@@ -7175,12 +7192,2623 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8459D9-031B-4E6F-A68D-6E695179F8C4}">
+  <dimension ref="A2:GI66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2">
+        <v>217</v>
+      </c>
+      <c r="I2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K2">
+        <v>212</v>
+      </c>
+      <c r="L2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N2">
+        <v>192</v>
+      </c>
+      <c r="O2" t="s">
+        <v>446</v>
+      </c>
+      <c r="P2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q2">
+        <v>138</v>
+      </c>
+      <c r="R2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S2" t="s">
+        <v>443</v>
+      </c>
+      <c r="T2">
+        <v>135</v>
+      </c>
+      <c r="U2" t="s">
+        <v>444</v>
+      </c>
+      <c r="V2" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2">
+        <v>128</v>
+      </c>
+      <c r="X2" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z2">
+        <v>104</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC2">
+        <v>97</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF2">
+        <v>94</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL2">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO2">
+        <v>60</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AR2">
+        <v>57</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU2">
+        <v>53</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX2">
+        <v>45</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA2">
+        <v>42</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>457</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BD2">
+        <v>39</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>459</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>443</v>
+      </c>
+      <c r="BG2">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>460</v>
+      </c>
+      <c r="BJ2">
+        <v>28</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BM2">
+        <v>21</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>458</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>452</v>
+      </c>
+      <c r="BP2">
+        <v>19</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>456</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>452</v>
+      </c>
+      <c r="BS2">
+        <v>18</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>461</v>
+      </c>
+      <c r="BV2">
+        <v>18</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>462</v>
+      </c>
+      <c r="BY2">
+        <v>18</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>463</v>
+      </c>
+      <c r="CB2">
+        <v>17</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>444</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>464</v>
+      </c>
+      <c r="CE2">
+        <v>15</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>447</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>445</v>
+      </c>
+      <c r="CH2">
+        <v>14</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>444</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>465</v>
+      </c>
+      <c r="CK2">
+        <v>12</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>444</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>466</v>
+      </c>
+      <c r="CN2">
+        <v>10</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>444</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>467</v>
+      </c>
+      <c r="CQ2">
+        <v>9</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>457</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>452</v>
+      </c>
+      <c r="CT2">
+        <v>9</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>458</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>445</v>
+      </c>
+      <c r="CW2">
+        <v>9</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>441</v>
+      </c>
+      <c r="CZ2">
+        <v>9</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>456</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>454</v>
+      </c>
+      <c r="DC2">
+        <v>8</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>447</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>441</v>
+      </c>
+      <c r="DF2">
+        <v>5</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>458</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>454</v>
+      </c>
+      <c r="DI2">
+        <v>4</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>452</v>
+      </c>
+      <c r="DL2">
+        <v>4</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>456</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>445</v>
+      </c>
+      <c r="DO2">
+        <v>4</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>447</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>454</v>
+      </c>
+      <c r="DR2">
+        <v>3</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>445</v>
+      </c>
+      <c r="DU2">
+        <v>3</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>456</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>443</v>
+      </c>
+      <c r="DX2">
+        <v>3</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>450</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>441</v>
+      </c>
+      <c r="EA2">
+        <v>3</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>444</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>468</v>
+      </c>
+      <c r="ED2">
+        <v>3</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>456</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>455</v>
+      </c>
+      <c r="EG2">
+        <v>2</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>457</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>445</v>
+      </c>
+      <c r="EJ2">
+        <v>2</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>456</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>460</v>
+      </c>
+      <c r="EM2">
+        <v>2</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>456</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>448</v>
+      </c>
+      <c r="EP2">
+        <v>2</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>469</v>
+      </c>
+      <c r="ES2">
+        <v>2</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>447</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>452</v>
+      </c>
+      <c r="EV2">
+        <v>2</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>444</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>470</v>
+      </c>
+      <c r="EY2">
+        <v>2</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>471</v>
+      </c>
+      <c r="FB2">
+        <v>2</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>456</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE2">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>443</v>
+      </c>
+      <c r="FH2">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>472</v>
+      </c>
+      <c r="FK2">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>473</v>
+      </c>
+      <c r="FN2">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>474</v>
+      </c>
+      <c r="FQ2">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>475</v>
+      </c>
+      <c r="FT2">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>476</v>
+      </c>
+      <c r="FW2">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>444</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>477</v>
+      </c>
+      <c r="FZ2">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>444</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>478</v>
+      </c>
+      <c r="GC2">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>444</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>479</v>
+      </c>
+      <c r="GF2">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>444</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>480</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>281</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>217</v>
+      </c>
+      <c r="K5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>212</v>
+      </c>
+      <c r="K6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>192</v>
+      </c>
+      <c r="K7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>455</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>441</v>
+      </c>
+      <c r="G21">
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22">
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D23">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>441</v>
+      </c>
+      <c r="G24">
+        <v>63</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>452</v>
+      </c>
+      <c r="G25">
+        <v>66</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>67</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>456</v>
+      </c>
+      <c r="D26">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26">
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>461</v>
+      </c>
+      <c r="G27">
+        <v>72</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>73</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29">
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>463</v>
+      </c>
+      <c r="G29">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="G30">
+        <v>81</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31">
+        <v>83</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>445</v>
+      </c>
+      <c r="G31">
+        <v>84</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32">
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>465</v>
+      </c>
+      <c r="G32">
+        <v>87</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>88</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D33">
+        <v>89</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>466</v>
+      </c>
+      <c r="G33">
+        <v>90</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="K33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>467</v>
+      </c>
+      <c r="G34">
+        <v>93</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>94</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35">
+        <v>95</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>452</v>
+      </c>
+      <c r="G35">
+        <v>96</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>458</v>
+      </c>
+      <c r="D36">
+        <v>98</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>445</v>
+      </c>
+      <c r="G36">
+        <v>99</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D37">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>441</v>
+      </c>
+      <c r="G37">
+        <v>102</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>456</v>
+      </c>
+      <c r="D38">
+        <v>104</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>454</v>
+      </c>
+      <c r="G38">
+        <v>105</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>447</v>
+      </c>
+      <c r="D39">
+        <v>107</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>441</v>
+      </c>
+      <c r="G39">
+        <v>108</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40">
+        <v>110</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>454</v>
+      </c>
+      <c r="G40">
+        <v>111</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41">
+        <v>113</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41">
+        <v>114</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D42">
+        <v>116</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>445</v>
+      </c>
+      <c r="G42">
+        <v>117</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>118</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43">
+        <v>119</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>454</v>
+      </c>
+      <c r="G43">
+        <v>120</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>451</v>
+      </c>
+      <c r="D44">
+        <v>122</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44">
+        <v>123</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>124</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45">
+        <v>125</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45">
+        <v>126</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>127</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46">
+        <v>128</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>441</v>
+      </c>
+      <c r="G46">
+        <v>129</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>130</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47">
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>468</v>
+      </c>
+      <c r="G47">
+        <v>132</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>133</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
+      <c r="D48">
+        <v>134</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>455</v>
+      </c>
+      <c r="G48">
+        <v>135</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>136</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49">
+        <v>137</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49">
+        <v>138</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>139</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50">
+        <v>140</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>460</v>
+      </c>
+      <c r="G50">
+        <v>141</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>142</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
+      <c r="D51">
+        <v>143</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>448</v>
+      </c>
+      <c r="G51">
+        <v>144</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>145</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>444</v>
+      </c>
+      <c r="D52">
+        <v>146</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>469</v>
+      </c>
+      <c r="G52">
+        <v>147</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>148</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
+      <c r="D53">
+        <v>149</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53">
+        <v>150</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>151</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54">
+        <v>152</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54">
+        <v>153</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>154</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>444</v>
+      </c>
+      <c r="D55">
+        <v>155</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>471</v>
+      </c>
+      <c r="G55">
+        <v>156</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>157</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>456</v>
+      </c>
+      <c r="D56">
+        <v>158</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56">
+        <v>159</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>160</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57">
+        <v>161</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57">
+        <v>162</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>163</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>444</v>
+      </c>
+      <c r="D58">
+        <v>164</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58">
+        <v>165</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>166</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>444</v>
+      </c>
+      <c r="D59">
+        <v>167</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59">
+        <v>168</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>169</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>444</v>
+      </c>
+      <c r="D60">
+        <v>170</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60">
+        <v>171</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>172</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61">
+        <v>173</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61">
+        <v>174</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>175</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>444</v>
+      </c>
+      <c r="D62">
+        <v>176</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>476</v>
+      </c>
+      <c r="G62">
+        <v>177</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>178</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>444</v>
+      </c>
+      <c r="D63">
+        <v>179</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G63">
+        <v>180</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>181</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>444</v>
+      </c>
+      <c r="D64">
+        <v>182</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64">
+        <v>183</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>184</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>444</v>
+      </c>
+      <c r="D65">
+        <v>185</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>479</v>
+      </c>
+      <c r="G65">
+        <v>186</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>187</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>444</v>
+      </c>
+      <c r="D66">
+        <v>188</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66">
+        <v>189</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426DD03B-DC09-49BD-81FB-9120E076C472}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7188,7 +9816,7 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -7951,16 +10579,6 @@
       <c r="G22">
         <v>15</v>
       </c>
-      <c r="R22" s="26" t="s">
-        <v>979</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="T22" s="19">
-        <f>+U18</f>
-        <v>92.868181818181824</v>
-      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7983,27 +10601,11 @@
       <c r="I23" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="R23" s="26"/>
-      <c r="S23" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="T23" s="19">
-        <f>+N18*100</f>
-        <v>92.800000000000011</v>
-      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="K24" s="2"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="T24" s="19">
-        <f>+F29*100</f>
-        <v>86.17647058823529</v>
-      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -8039,7 +10641,6 @@
       <c r="O25" t="s">
         <v>22</v>
       </c>
-      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -8078,15 +10679,6 @@
       <c r="P26" t="s">
         <v>570</v>
       </c>
-      <c r="R26" s="26" t="s">
-        <v>983</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>984</v>
-      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -8122,14 +10714,6 @@
       <c r="O27">
         <v>31</v>
       </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="T27" s="19">
-        <f>+N39*100</f>
-        <v>89.9</v>
-      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
@@ -8146,14 +10730,6 @@
       </c>
       <c r="O28">
         <v>17</v>
-      </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="T28" s="19">
-        <f>+F63*100</f>
-        <v>87.793749999999989</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -8850,16 +11426,1643 @@
   <sortState ref="K55:O65">
     <sortCondition ref="K55:K65"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="R26:R28"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE9A34C-F961-4E8A-90AC-936792000F79}">
+  <dimension ref="B1:P79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G5">
+        <v>974</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="O5">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="P5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.44</v>
+      </c>
+      <c r="O7">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.125</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="O13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G15">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15">
+        <v>0.125</v>
+      </c>
+      <c r="N15">
+        <v>0.115</v>
+      </c>
+      <c r="O15">
+        <v>0.12</v>
+      </c>
+      <c r="P15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F18">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G18">
+        <v>1207</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1951</v>
+      </c>
+      <c r="O18">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="P18">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E19">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F19">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G19">
+        <v>1207</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="P19">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G20">
+        <v>1207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>0.7</v>
+      </c>
+      <c r="N20">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="P20">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>0.99</v>
+      </c>
+      <c r="E27">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G27">
+        <v>974</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="P27">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E30">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F30">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.97</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" t="s">
+        <v>568</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F36">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G36">
+        <v>22</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>0.6</v>
+      </c>
+      <c r="E38">
+        <v>0.75</v>
+      </c>
+      <c r="F38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0.75</v>
+      </c>
+      <c r="E39">
+        <v>0.6</v>
+      </c>
+      <c r="F39">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G40">
+        <v>34</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40">
+        <v>0.3</v>
+      </c>
+      <c r="N40">
+        <v>0.115</v>
+      </c>
+      <c r="O40">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" t="s">
+        <v>569</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E43">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F43">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E44">
+        <v>0.8</v>
+      </c>
+      <c r="F44">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>0.75</v>
+      </c>
+      <c r="E46">
+        <v>0.6</v>
+      </c>
+      <c r="F46">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F47">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E49">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F49">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G49">
+        <v>1207</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49">
+        <v>0.76</v>
+      </c>
+      <c r="N49">
+        <v>0.76</v>
+      </c>
+      <c r="O49">
+        <v>0.76</v>
+      </c>
+      <c r="P49">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="E50">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F50">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G50">
+        <v>1207</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N50">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O50">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P50">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F51">
+        <v>0.97</v>
+      </c>
+      <c r="G51">
+        <v>1207</v>
+      </c>
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="N51">
+        <v>0.76</v>
+      </c>
+      <c r="O51">
+        <v>0.67</v>
+      </c>
+      <c r="P51">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F53" s="16">
+        <f>+AVERAGE(F27:F32,F34,F36,F38:F41,F43:F47)</f>
+        <v>0.88447058823529401</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E0DB03-B881-4443-9601-A03C799E15BA}">
+  <dimension ref="B3:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D3" s="19">
+        <f>+'CRF-2'!U18</f>
+        <v>92.868181818181824</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D4" s="19">
+        <f>+'CRF-2'!N18*100</f>
+        <v>92.800000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D5" s="19">
+        <f>+'CRF-2'!F29*100</f>
+        <v>86.17647058823529</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D8" s="19">
+        <f>+'CRF-2'!N39*100</f>
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D9" s="19">
+        <f>+'CRF-2'!F63*100</f>
+        <v>87.793749999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D13" s="19">
+        <f>+'CRF-RNN'!F19*100</f>
+        <v>90.600000000000009</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D14" s="19">
+        <f>+'CRF-RNN'!F53*100</f>
+        <v>88.447058823529403</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D15" s="19">
+        <f>+'CRF-RNN'!O19*100</f>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D16" s="19">
+        <f>+'CRF-RNN'!O50*100</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8352F6E5-FEB5-43EC-88EC-4258BDB71AAB}">
   <dimension ref="B1:J117"/>
   <sheetViews>
@@ -9635,7 +13838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B79E97D-B4AB-494B-BAE7-7AE10FC8E280}">
   <dimension ref="B1:C1223"/>
   <sheetViews>
@@ -13250,7 +17453,7 @@
         <v>1545</v>
       </c>
       <c r="C401" t="b">
-        <f t="shared" ref="C401:C432" si="8">+ISNUMBER(B401)</f>
+        <f t="shared" ref="C401:C428" si="8">+ISNUMBER(B401)</f>
         <v>0</v>
       </c>
     </row>
@@ -20649,7 +24852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EE5CB8-3D4F-4E20-AD4A-6BA61BBB358E}">
   <dimension ref="A2:FX39"/>
   <sheetViews>
@@ -24870,7 +29073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A108CFF2-F334-4E39-B6AC-9D7D1EF66DDA}">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
@@ -25281,7 +29484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093669AD-1D60-4696-A800-3F2B09DB0EDA}">
   <dimension ref="A3:D66"/>
   <sheetViews>
@@ -26010,2615 +30213,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8459D9-031B-4E6F-A68D-6E695179F8C4}">
-  <dimension ref="A2:GI66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2">
-        <v>281</v>
-      </c>
-      <c r="F2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H2">
-        <v>217</v>
-      </c>
-      <c r="I2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J2" t="s">
-        <v>443</v>
-      </c>
-      <c r="K2">
-        <v>212</v>
-      </c>
-      <c r="L2" t="s">
-        <v>444</v>
-      </c>
-      <c r="M2" t="s">
-        <v>445</v>
-      </c>
-      <c r="N2">
-        <v>192</v>
-      </c>
-      <c r="O2" t="s">
-        <v>446</v>
-      </c>
-      <c r="P2" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q2">
-        <v>138</v>
-      </c>
-      <c r="R2" t="s">
-        <v>447</v>
-      </c>
-      <c r="S2" t="s">
-        <v>443</v>
-      </c>
-      <c r="T2">
-        <v>135</v>
-      </c>
-      <c r="U2" t="s">
-        <v>444</v>
-      </c>
-      <c r="V2" t="s">
-        <v>448</v>
-      </c>
-      <c r="W2">
-        <v>128</v>
-      </c>
-      <c r="X2" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z2">
-        <v>104</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC2">
-        <v>97</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF2">
-        <v>94</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>443</v>
-      </c>
-      <c r="AI2">
-        <v>75</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>454</v>
-      </c>
-      <c r="AL2">
-        <v>67</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>455</v>
-      </c>
-      <c r="AO2">
-        <v>60</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>441</v>
-      </c>
-      <c r="AR2">
-        <v>57</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>443</v>
-      </c>
-      <c r="AU2">
-        <v>53</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>441</v>
-      </c>
-      <c r="AX2">
-        <v>45</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>452</v>
-      </c>
-      <c r="BA2">
-        <v>42</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>457</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>441</v>
-      </c>
-      <c r="BD2">
-        <v>39</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>459</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>443</v>
-      </c>
-      <c r="BG2">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>444</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>460</v>
-      </c>
-      <c r="BJ2">
-        <v>28</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>441</v>
-      </c>
-      <c r="BM2">
-        <v>21</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>458</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>452</v>
-      </c>
-      <c r="BP2">
-        <v>19</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>456</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>452</v>
-      </c>
-      <c r="BS2">
-        <v>18</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>444</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>461</v>
-      </c>
-      <c r="BV2">
-        <v>18</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>444</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>462</v>
-      </c>
-      <c r="BY2">
-        <v>18</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>444</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>463</v>
-      </c>
-      <c r="CB2">
-        <v>17</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>444</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>464</v>
-      </c>
-      <c r="CE2">
-        <v>15</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>447</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>445</v>
-      </c>
-      <c r="CH2">
-        <v>14</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>444</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>465</v>
-      </c>
-      <c r="CK2">
-        <v>12</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>444</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>466</v>
-      </c>
-      <c r="CN2">
-        <v>10</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>444</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>467</v>
-      </c>
-      <c r="CQ2">
-        <v>9</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>457</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>452</v>
-      </c>
-      <c r="CT2">
-        <v>9</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>458</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>445</v>
-      </c>
-      <c r="CW2">
-        <v>9</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>451</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>441</v>
-      </c>
-      <c r="CZ2">
-        <v>9</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>456</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>454</v>
-      </c>
-      <c r="DC2">
-        <v>8</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>447</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>441</v>
-      </c>
-      <c r="DF2">
-        <v>5</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>458</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>454</v>
-      </c>
-      <c r="DI2">
-        <v>4</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>449</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>452</v>
-      </c>
-      <c r="DL2">
-        <v>4</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>456</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>445</v>
-      </c>
-      <c r="DO2">
-        <v>4</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>447</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>454</v>
-      </c>
-      <c r="DR2">
-        <v>3</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>451</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>445</v>
-      </c>
-      <c r="DU2">
-        <v>3</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>456</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>443</v>
-      </c>
-      <c r="DX2">
-        <v>3</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>450</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>441</v>
-      </c>
-      <c r="EA2">
-        <v>3</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>444</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>468</v>
-      </c>
-      <c r="ED2">
-        <v>3</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>456</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>455</v>
-      </c>
-      <c r="EG2">
-        <v>2</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>457</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>445</v>
-      </c>
-      <c r="EJ2">
-        <v>2</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>456</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>460</v>
-      </c>
-      <c r="EM2">
-        <v>2</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>456</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>448</v>
-      </c>
-      <c r="EP2">
-        <v>2</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>444</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>469</v>
-      </c>
-      <c r="ES2">
-        <v>2</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>447</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>452</v>
-      </c>
-      <c r="EV2">
-        <v>2</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>444</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>470</v>
-      </c>
-      <c r="EY2">
-        <v>2</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>471</v>
-      </c>
-      <c r="FB2">
-        <v>2</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>456</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>461</v>
-      </c>
-      <c r="FE2">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>451</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>443</v>
-      </c>
-      <c r="FH2">
-        <v>1</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>472</v>
-      </c>
-      <c r="FK2">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>473</v>
-      </c>
-      <c r="FN2">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>474</v>
-      </c>
-      <c r="FQ2">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>475</v>
-      </c>
-      <c r="FT2">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>476</v>
-      </c>
-      <c r="FW2">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>444</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>477</v>
-      </c>
-      <c r="FZ2">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>444</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>478</v>
-      </c>
-      <c r="GC2">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>444</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>479</v>
-      </c>
-      <c r="GF2">
-        <v>1</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>444</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>480</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>281</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>217</v>
-      </c>
-      <c r="K5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>212</v>
-      </c>
-      <c r="K6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>192</v>
-      </c>
-      <c r="K7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>138</v>
-      </c>
-      <c r="K8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>447</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>135</v>
-      </c>
-      <c r="K9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>128</v>
-      </c>
-      <c r="K10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>441</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>443</v>
-      </c>
-      <c r="G12">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>97</v>
-      </c>
-      <c r="K12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D13">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>452</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>94</v>
-      </c>
-      <c r="K13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>453</v>
-      </c>
-      <c r="D14">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>443</v>
-      </c>
-      <c r="G14">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>444</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>454</v>
-      </c>
-      <c r="G15">
-        <v>36</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:191" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D16">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>455</v>
-      </c>
-      <c r="G16">
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17">
-        <v>41</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G17">
-        <v>42</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>57</v>
-      </c>
-      <c r="K17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>43</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D18">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18">
-        <v>45</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>53</v>
-      </c>
-      <c r="K18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>46</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>458</v>
-      </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>441</v>
-      </c>
-      <c r="G19">
-        <v>48</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>45</v>
-      </c>
-      <c r="K19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>444</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>452</v>
-      </c>
-      <c r="G20">
-        <v>51</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>42</v>
-      </c>
-      <c r="K20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>457</v>
-      </c>
-      <c r="D21">
-        <v>53</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>441</v>
-      </c>
-      <c r="G21">
-        <v>54</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>39</v>
-      </c>
-      <c r="K21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>55</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>459</v>
-      </c>
-      <c r="D22">
-        <v>56</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>443</v>
-      </c>
-      <c r="G22">
-        <v>57</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>36</v>
-      </c>
-      <c r="K22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>58</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23">
-        <v>59</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>460</v>
-      </c>
-      <c r="G23">
-        <v>60</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>61</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24">
-        <v>62</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>441</v>
-      </c>
-      <c r="G24">
-        <v>63</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D25">
-        <v>65</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>452</v>
-      </c>
-      <c r="G25">
-        <v>66</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>19</v>
-      </c>
-      <c r="K25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>67</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>456</v>
-      </c>
-      <c r="D26">
-        <v>68</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26">
-        <v>69</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>70</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>444</v>
-      </c>
-      <c r="D27">
-        <v>71</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>461</v>
-      </c>
-      <c r="G27">
-        <v>72</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>73</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D28">
-        <v>74</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>462</v>
-      </c>
-      <c r="G28">
-        <v>75</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>76</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29">
-        <v>77</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>463</v>
-      </c>
-      <c r="G29">
-        <v>78</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>17</v>
-      </c>
-      <c r="K29" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>79</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>444</v>
-      </c>
-      <c r="D30">
-        <v>80</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30">
-        <v>81</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>82</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>447</v>
-      </c>
-      <c r="D31">
-        <v>83</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>445</v>
-      </c>
-      <c r="G31">
-        <v>84</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>14</v>
-      </c>
-      <c r="K31" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>85</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>444</v>
-      </c>
-      <c r="D32">
-        <v>86</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>465</v>
-      </c>
-      <c r="G32">
-        <v>87</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="K32" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>88</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>444</v>
-      </c>
-      <c r="D33">
-        <v>89</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>466</v>
-      </c>
-      <c r="G33">
-        <v>90</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="K33" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>91</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>444</v>
-      </c>
-      <c r="D34">
-        <v>92</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>467</v>
-      </c>
-      <c r="G34">
-        <v>93</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="K34" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>94</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>457</v>
-      </c>
-      <c r="D35">
-        <v>95</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>452</v>
-      </c>
-      <c r="G35">
-        <v>96</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>9</v>
-      </c>
-      <c r="K35" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>97</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D36">
-        <v>98</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>445</v>
-      </c>
-      <c r="G36">
-        <v>99</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>9</v>
-      </c>
-      <c r="K36" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>100</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>451</v>
-      </c>
-      <c r="D37">
-        <v>101</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>441</v>
-      </c>
-      <c r="G37">
-        <v>102</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>9</v>
-      </c>
-      <c r="K37" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>103</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>456</v>
-      </c>
-      <c r="D38">
-        <v>104</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>454</v>
-      </c>
-      <c r="G38">
-        <v>105</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="K38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>106</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>447</v>
-      </c>
-      <c r="D39">
-        <v>107</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>441</v>
-      </c>
-      <c r="G39">
-        <v>108</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="K39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>109</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>458</v>
-      </c>
-      <c r="D40">
-        <v>110</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>454</v>
-      </c>
-      <c r="G40">
-        <v>111</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>4</v>
-      </c>
-      <c r="K40" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>112</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>449</v>
-      </c>
-      <c r="D41">
-        <v>113</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>452</v>
-      </c>
-      <c r="G41">
-        <v>114</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="K41" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>115</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>456</v>
-      </c>
-      <c r="D42">
-        <v>116</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>445</v>
-      </c>
-      <c r="G42">
-        <v>117</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="K42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>118</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>447</v>
-      </c>
-      <c r="D43">
-        <v>119</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>454</v>
-      </c>
-      <c r="G43">
-        <v>120</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>121</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>451</v>
-      </c>
-      <c r="D44">
-        <v>122</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>445</v>
-      </c>
-      <c r="G44">
-        <v>123</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>124</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>456</v>
-      </c>
-      <c r="D45">
-        <v>125</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>443</v>
-      </c>
-      <c r="G45">
-        <v>126</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>127</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>450</v>
-      </c>
-      <c r="D46">
-        <v>128</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>441</v>
-      </c>
-      <c r="G46">
-        <v>129</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>130</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>444</v>
-      </c>
-      <c r="D47">
-        <v>131</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>468</v>
-      </c>
-      <c r="G47">
-        <v>132</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>133</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>456</v>
-      </c>
-      <c r="D48">
-        <v>134</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G48">
-        <v>135</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>136</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>457</v>
-      </c>
-      <c r="D49">
-        <v>137</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>445</v>
-      </c>
-      <c r="G49">
-        <v>138</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>139</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>456</v>
-      </c>
-      <c r="D50">
-        <v>140</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>460</v>
-      </c>
-      <c r="G50">
-        <v>141</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="K50" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>142</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>456</v>
-      </c>
-      <c r="D51">
-        <v>143</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>448</v>
-      </c>
-      <c r="G51">
-        <v>144</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="K51" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>145</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52">
-        <v>146</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>469</v>
-      </c>
-      <c r="G52">
-        <v>147</v>
-      </c>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="K52" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>148</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>447</v>
-      </c>
-      <c r="D53">
-        <v>149</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>452</v>
-      </c>
-      <c r="G53">
-        <v>150</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>151</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>444</v>
-      </c>
-      <c r="D54">
-        <v>152</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>470</v>
-      </c>
-      <c r="G54">
-        <v>153</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="K54" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>154</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>444</v>
-      </c>
-      <c r="D55">
-        <v>155</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>471</v>
-      </c>
-      <c r="G55">
-        <v>156</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="K55" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>157</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>456</v>
-      </c>
-      <c r="D56">
-        <v>158</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>461</v>
-      </c>
-      <c r="G56">
-        <v>159</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>160</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57">
-        <v>161</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>443</v>
-      </c>
-      <c r="G57">
-        <v>162</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>163</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>444</v>
-      </c>
-      <c r="D58">
-        <v>164</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>472</v>
-      </c>
-      <c r="G58">
-        <v>165</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>166</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>444</v>
-      </c>
-      <c r="D59">
-        <v>167</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>473</v>
-      </c>
-      <c r="G59">
-        <v>168</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>169</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>444</v>
-      </c>
-      <c r="D60">
-        <v>170</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
-        <v>474</v>
-      </c>
-      <c r="G60">
-        <v>171</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>172</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>444</v>
-      </c>
-      <c r="D61">
-        <v>173</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>475</v>
-      </c>
-      <c r="G61">
-        <v>174</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>175</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>444</v>
-      </c>
-      <c r="D62">
-        <v>176</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s">
-        <v>476</v>
-      </c>
-      <c r="G62">
-        <v>177</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>178</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>444</v>
-      </c>
-      <c r="D63">
-        <v>179</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
-        <v>477</v>
-      </c>
-      <c r="G63">
-        <v>180</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>181</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>444</v>
-      </c>
-      <c r="D64">
-        <v>182</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>478</v>
-      </c>
-      <c r="G64">
-        <v>183</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>184</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>444</v>
-      </c>
-      <c r="D65">
-        <v>185</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>479</v>
-      </c>
-      <c r="G65">
-        <v>186</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>187</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>444</v>
-      </c>
-      <c r="D66">
-        <v>188</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s">
-        <v>480</v>
-      </c>
-      <c r="G66">
-        <v>189</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="I66" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" t="s">
-        <v>486</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/base_data/dataExploration.xlsx
+++ b/base_data/dataExploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\DeepLearning-JN\cs224u\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F296D-D7FD-411A-B9A0-C0D36F449F3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0230897-4915-41A2-8024-255AAA34CBAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" activeTab="3" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10260" firstSheet="5" activeTab="9" xr2:uid="{382FEA66-3CDA-47F5-9340-400953CE4B16}"/>
   </bookViews>
   <sheets>
     <sheet name="CRF-1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="MostCommonTokens-per-Label" sheetId="3" r:id="rId7"/>
     <sheet name="trailing-dot" sheetId="6" r:id="rId8"/>
     <sheet name="SuccessiveTokens-withSameLabel" sheetId="4" r:id="rId9"/>
-    <sheet name="aux" sheetId="5" r:id="rId10"/>
+    <sheet name="auxNoTokens" sheetId="12" r:id="rId10"/>
+    <sheet name="aux" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">auxDistinctWords!$B$430:$C$1223</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1958">
   <si>
     <t>B-DATUM_VERBUECHERUNG</t>
   </si>
@@ -5905,6 +5906,12 @@
   </si>
   <si>
     <t>(NOTE: these 1st two results are different from above as we're now including "O" class in the numbers)</t>
+  </si>
+  <si>
+    <t>annot[i]</t>
+  </si>
+  <si>
+    <t>no Tokens</t>
   </si>
 </sst>
 </file>
@@ -7193,6 +7200,1097 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ADE5DB-9DAD-4EEB-92DC-AFD8B8BB2ED5}">
+  <dimension ref="A1:B134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8459D9-031B-4E6F-A68D-6E695179F8C4}">
   <dimension ref="A2:GI66"/>
   <sheetViews>
@@ -12938,7 +14036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E0DB03-B881-4443-9601-A03C799E15BA}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -13064,7 +14162,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8352F6E5-FEB5-43EC-88EC-4258BDB71AAB}">
-  <dimension ref="B1:J117"/>
+  <dimension ref="B1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -13202,7 +14300,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -13220,7 +14318,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -13237,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -13254,7 +14352,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -13270,8 +14368,12 @@
       <c r="H20" s="18">
         <v>1.3680981595092001</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f>133*0.25</f>
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -13288,7 +14390,7 @@
         <v>1.7037037037036999</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -13305,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -13322,7 +14424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -13339,7 +14441,7 @@
         <v>1.61165048543689</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -13356,7 +14458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -13373,7 +14475,7 @@
         <v>2.11320754716981</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -13384,7 +14486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -13395,7 +14497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -13406,7 +14508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -13417,7 +14519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -13428,7 +14530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>40</v>
       </c>
